--- a/Business - Technology Services/QTWO.xlsx
+++ b/Business - Technology Services/QTWO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453245ED-28DF-49B4-9FE9-417AF42E10E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C33A9-FAB6-4DF0-9AD5-57CB0154DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$20:$W$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$21:$W$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$3:$W$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$4:$W$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="228">
   <si>
     <t>Price</t>
   </si>
@@ -392,22 +392,13 @@
     <t>Operational Income</t>
   </si>
   <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Goodwill</t>
-  </si>
-  <si>
-    <t>Other long-term liabilieties</t>
   </si>
   <si>
     <t>Total Assets</t>
@@ -432,12 +423,6 @@
   </si>
   <si>
     <t>Q121</t>
-  </si>
-  <si>
-    <t>FY19</t>
-  </si>
-  <si>
-    <t>Net Income y/y</t>
   </si>
   <si>
     <t>Q223</t>
@@ -524,12 +509,6 @@
     <t>Total Current Liabilities</t>
   </si>
   <si>
-    <t>Gains on Equity</t>
-  </si>
-  <si>
-    <t>Operating Lease</t>
-  </si>
-  <si>
     <t>Q124</t>
   </si>
   <si>
@@ -566,22 +545,13 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>NI Noncontrolling Interest</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Restricted Cash</t>
   </si>
   <si>
-    <t>Receivables</t>
-  </si>
-  <si>
     <t>Prepaid Expense</t>
-  </si>
-  <si>
-    <t>Restricted cash</t>
   </si>
   <si>
     <t>PP&amp;E</t>
@@ -590,37 +560,10 @@
     <t>Intangible Asset</t>
   </si>
   <si>
-    <t>Deffered Income Tax</t>
-  </si>
-  <si>
-    <t>Long term debt</t>
-  </si>
-  <si>
-    <t>Acctured Liab</t>
-  </si>
-  <si>
     <t>Equity</t>
   </si>
   <si>
     <t>Rights of use</t>
-  </si>
-  <si>
-    <t>Current position in LTB</t>
-  </si>
-  <si>
-    <t>Interest exp / REV</t>
-  </si>
-  <si>
-    <t>Interest exp / op Inc</t>
-  </si>
-  <si>
-    <t>Assets of Businesses for Sale</t>
-  </si>
-  <si>
-    <t>Liab Business for Sale</t>
-  </si>
-  <si>
-    <t>Inventories</t>
   </si>
   <si>
     <t>Interest Rate debt</t>
@@ -782,30 +725,6 @@
     <t>Descriptive Statistics</t>
   </si>
   <si>
-    <t>Prod1</t>
-  </si>
-  <si>
-    <t>Prod2</t>
-  </si>
-  <si>
-    <t>Prod3</t>
-  </si>
-  <si>
-    <t>COGS Prod1</t>
-  </si>
-  <si>
-    <t>COGS Prod3</t>
-  </si>
-  <si>
-    <t>COGS Prod2</t>
-  </si>
-  <si>
-    <t>Prod1 y/y</t>
-  </si>
-  <si>
-    <t>Prod2 y/y</t>
-  </si>
-  <si>
     <t>R&amp;D / REV</t>
   </si>
   <si>
@@ -912,6 +831,177 @@
   </si>
   <si>
     <t>TATE MICHAEL TRUETTChief Financial Officer</t>
+  </si>
+  <si>
+    <t>Mr. Matthew P. Flake</t>
+  </si>
+  <si>
+    <t>CEO &amp; Chairman of the Board</t>
+  </si>
+  <si>
+    <t>Mr. Kirk L. Coleman</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Mr. Robert H. Seale III</t>
+  </si>
+  <si>
+    <t>Chairman Emeritus</t>
+  </si>
+  <si>
+    <t>Mr. David J. Mehok</t>
+  </si>
+  <si>
+    <t>CFO &amp; Principal Accounting Officer</t>
+  </si>
+  <si>
+    <t>Mr. John E. Breeden</t>
+  </si>
+  <si>
+    <t>Chief Operating Officer</t>
+  </si>
+  <si>
+    <t>Mr. Michael A. Volanoski</t>
+  </si>
+  <si>
+    <t>Chief Revenue Officer</t>
+  </si>
+  <si>
+    <t>Mr. Adam D. Blue</t>
+  </si>
+  <si>
+    <t>Chief Technology Officer</t>
+  </si>
+  <si>
+    <t>Josh Yankovich</t>
+  </si>
+  <si>
+    <t>Investor Contact</t>
+  </si>
+  <si>
+    <t>Ms. Suzette Junier</t>
+  </si>
+  <si>
+    <t>Chief Compliance Officer &amp; Chief Privacy Officer</t>
+  </si>
+  <si>
+    <t>M. Scott Kerr</t>
+  </si>
+  <si>
+    <t>Senior VP, General Counsel &amp; Corporate Secretary</t>
+  </si>
+  <si>
+    <t>Digital Banking in the US</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Q2 Small Business</t>
+  </si>
+  <si>
+    <t>Q2 mobile Remote Deposit Capture</t>
+  </si>
+  <si>
+    <t>Q2 Sentinel</t>
+  </si>
+  <si>
+    <t>Q2 Patrol</t>
+  </si>
+  <si>
+    <t>Q2 Smart</t>
+  </si>
+  <si>
+    <t>Q2 Contextual Personal Financial Management</t>
+  </si>
+  <si>
+    <t>Q2 Consumer Banking</t>
+  </si>
+  <si>
+    <t>Q2 Goals</t>
+  </si>
+  <si>
+    <t>Q2 CardSwap</t>
+  </si>
+  <si>
+    <t>Q2 Gro</t>
+  </si>
+  <si>
+    <t>Q2 Innovation Studio</t>
+  </si>
+  <si>
+    <t>Q2 Biller Direct</t>
+  </si>
+  <si>
+    <t>ClickSWITCH</t>
+  </si>
+  <si>
+    <t>Sensibill</t>
+  </si>
+  <si>
+    <t>Centrix Dispute Tracking System</t>
+  </si>
+  <si>
+    <t>Centrix Payments IQ Systems</t>
+  </si>
+  <si>
+    <t>Centreix Transaction Systems</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Contract Assets</t>
+  </si>
+  <si>
+    <t>Deferred solution</t>
+  </si>
+  <si>
+    <t>Deferred implementation cost</t>
+  </si>
+  <si>
+    <t>Other long term assets</t>
+  </si>
+  <si>
+    <t>Convertible Notes</t>
+  </si>
+  <si>
+    <t>Deferred revenue</t>
+  </si>
+  <si>
+    <t>Lease liab</t>
+  </si>
+  <si>
+    <t>Deferred revenues</t>
+  </si>
+  <si>
+    <t>Other long-term liab</t>
+  </si>
+  <si>
+    <t>Accrued liabilities</t>
+  </si>
+  <si>
+    <t>Accrued compensation</t>
+  </si>
+  <si>
+    <t>Transaction related costs</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>Lease and other</t>
+  </si>
+  <si>
+    <t>Gains on ext. Debt</t>
+  </si>
+  <si>
+    <t>Other (investments, curr)</t>
+  </si>
+  <si>
+    <t>EPS Growth</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,12 +1155,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9B9B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,9 +1742,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1715,18 +1799,12 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1737,131 +1815,133 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="8" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="8" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="8" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1873,13 +1953,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1981,7 +2062,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$6</c:f>
+              <c:f>Model!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2097,7 +2178,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$K$2:$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -2144,48 +2225,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$X$6</c:f>
+              <c:f>Model!$K$3:$W$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>153.00800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>154.53100000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>165.50800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,7 +2268,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$29</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2294,7 +2345,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$29:$X$29</c:f>
+              <c:f>Model!$K$24:$W$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2323,7 +2374,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8.1695074767332398E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,7 +2718,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$6</c:f>
+              <c:f>Model!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2687,7 +2738,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2699,14 +2750,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-21CC-452E-9D1B-EA54FE60E683}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2722,7 +2768,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8FA1-4450-8EE0-3FE2DAE0EFFF}"/>
+                <c16:uniqueId val="{00000001-21CC-452E-9D1B-EA54FE60E683}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2780,28 +2826,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$I$2</c:f>
+              <c:f>Model!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>FY25</c:v>
                 </c:pt>
               </c:strCache>
@@ -2809,24 +2852,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$6:$I$6</c:f>
+              <c:f>Model!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>402.75099999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>498.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>565.673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>624.62400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,7 +2897,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$29</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2944,27 +2984,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$29:$I$29</c:f>
+              <c:f>Model!$C$24:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.23828370382693054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.13424967917869735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.10421391864204232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.10650567381336606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46403348155898527</c:v>
+                  <c:v>0.11635679664327592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,7 +3345,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3424,7 +3461,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$K$2:$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -3471,7 +3508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$23:$X$23</c:f>
+              <c:f>Model!$K$18:$W$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3500,10 +3537,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.5799999999978525E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-23.18490000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3512,7 +3549,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-14.037999999999974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3544,7 +3581,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$27</c:f>
+              <c:f>Model!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3621,7 +3658,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$27:$X$27</c:f>
+              <c:f>Model!$K$22:$W$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3650,10 +3687,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.47904031161769323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.47775527240488969</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3662,7 +3699,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.49696691398603088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,7 +4043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4080,28 +4117,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$I$2</c:f>
+              <c:f>Model!$C$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>FY25</c:v>
                 </c:pt>
               </c:strCache>
@@ -4109,24 +4143,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$23:$I$23</c:f>
+              <c:f>Model!$C$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-137.10999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-112.849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-111.82000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-63.523000000000017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4158,11 +4189,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$35</c:f>
+              <c:f>Model!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income y/y</c:v>
+                  <c:v>EPS Growth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4233,27 +4264,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$35:$I$35</c:f>
+              <c:f>Model!$C$28:$H$28</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.63562816806640332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.7283163130308381E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.78150047244294307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.6804716043458892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4612,7 +4640,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$30</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4705,7 +4733,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$V$2</c:f>
+              <c:f>Model!$K$2:$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4746,7 +4774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$30:$V$30</c:f>
+              <c:f>Model!$K$25:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4775,10 +4803,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.18374202656070271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.18572972413302186</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4798,7 +4826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$31</c:f>
+              <c:f>Model!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4891,7 +4919,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$31:$W$31</c:f>
+              <c:f>Model!$K$26:$V$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4920,10 +4948,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.22498823590923347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.22064181296956595</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4946,7 +4974,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$32</c:f>
+              <c:f>Model!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5039,7 +5067,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$32:$W$32</c:f>
+              <c:f>Model!$K$27:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5068,10 +5096,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.16137718289239777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.17554406559201713</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5383,7 +5411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$30</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5476,22 +5504,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$G$2</c:f>
+              <c:f>Model!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>FY23</c:v>
                 </c:pt>
               </c:strCache>
@@ -5499,24 +5524,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$30:$G$30</c:f>
+              <c:f>Model!$C$25:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.17957249019865873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.17156721206288095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.19130133487014583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.17534068495606958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5533,7 +5555,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$31</c:f>
+              <c:f>Model!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5626,22 +5648,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$G$2</c:f>
+              <c:f>Model!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>FY23</c:v>
                 </c:pt>
               </c:strCache>
@@ -5649,24 +5668,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$31:$G$31</c:f>
+              <c:f>Model!$C$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2417895920804666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.2345043310875842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22999683562765061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.2198666717897487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,7 +5699,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$32</c:f>
+              <c:f>Model!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5776,22 +5792,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$G$2</c:f>
+              <c:f>Model!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>FY23</c:v>
                 </c:pt>
               </c:strCache>
@@ -5799,24 +5812,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$32:$G$32</c:f>
+              <c:f>Model!$C$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.8299097953822588E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.15622994866859161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.15939067270313415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.17640372448064756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13176,10 +13186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N42"/>
+  <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13202,50 +13212,55 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="20">
         <v>45548</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="38"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" t="s">
+        <v>172</v>
+      </c>
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -13254,34 +13269,44 @@
         <v>0.91527777777777775</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="38"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" t="s">
+        <v>174</v>
+      </c>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="38"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" t="s">
+        <v>176</v>
+      </c>
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -13292,40 +13317,53 @@
         <v>75.2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="I6" s="10">
         <v>161.74700000000001</v>
       </c>
       <c r="J6" s="38"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" t="s">
+        <v>178</v>
+      </c>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15">
+        <f>Model!F19</f>
+        <v>58.353999999999999</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="I7" s="10">
         <v>165</v>
       </c>
       <c r="J7" s="38"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" t="s">
+        <v>180</v>
+      </c>
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -13334,46 +13372,56 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>0</v>
+        <v>4388.2208000000001</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="I8" s="10">
         <v>4.5730000000000004</v>
       </c>
       <c r="J8" s="38"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" t="s">
+        <v>182</v>
+      </c>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15" t="e">
-        <f>Model!F28</f>
-        <v>#DIV/0!</v>
+      <c r="C9" s="15">
+        <f>Model!E23</f>
+        <v>-0.19767604251926479</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="I9" s="10">
         <v>325.47399999999999</v>
       </c>
       <c r="J9" s="38"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" t="s">
+        <v>184</v>
+      </c>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -13381,69 +13429,84 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!F41+Model!F45</f>
-        <v>0</v>
+        <f>Model!E32+Model!E36</f>
+        <v>208.50899999999999</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="38"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" t="s">
+        <v>186</v>
+      </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="15" t="e">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>#DIV/0!</v>
+        <v>-208.70667604251926</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="38"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" t="s">
+        <v>188</v>
+      </c>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15" t="e">
+      <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>#DIV/0!</v>
+        <v>4596.9274760425196</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="J12" s="13"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" t="s">
+        <v>190</v>
+      </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="36" t="e">
         <f>C6/Model!#REF!</f>
@@ -13456,11 +13519,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="36" t="e">
-        <f>C6/Model!G16</f>
-        <v>#DIV/0!</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="36">
+        <f>C6/Model!F12</f>
+        <v>-0.87383943200436909</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13474,254 +13537,336 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15" s="36" t="e">
-        <f>C6/Model!H16</f>
+        <f>C6/Model!G12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6" t="e">
-        <f>Model!G16/Model!#REF!-1</f>
+        <f>Model!F12/Model!#REF!-1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6" t="e">
-        <f>Model!H16/Model!G16-1</f>
-        <v>#DIV/0!</v>
+        <v>44</v>
+      </c>
+      <c r="C17" s="6">
+        <f>Model!G12/Model!F12-1</f>
+        <v>-1</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="131"/>
+        <v>54</v>
+      </c>
+      <c r="L17" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="126"/>
+      <c r="N17" s="127"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="52" t="e">
+        <v>70</v>
+      </c>
+      <c r="C18" s="50" t="e">
         <f>C14/(C16*100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="132"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="128"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="130"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="52" t="e">
+        <v>71</v>
+      </c>
+      <c r="C19" s="50" t="e">
         <f>C15/(C17*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="132"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="134"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="130"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6" t="e">
-        <f>Model!G4/Model!F3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="134"/>
+        <f>Model!#REF!/Model!#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="130"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C21" s="6" t="e">
-        <f>Model!G5/Model!F4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="134"/>
+        <f>Model!#REF!/Model!#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="128"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="130"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="15">
-        <f>Model!F12+Model!F10</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
+        <v>72</v>
+      </c>
+      <c r="C22" s="15" t="e">
+        <f>Model!E6+Model!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="128"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="130"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!F12</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="134"/>
+        <f>Model!E6</f>
+        <v>108.214</v>
+      </c>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="130"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!F17</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="134"/>
+        <f>Model!E13</f>
+        <v>-1.3140000000000001</v>
+      </c>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="130"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!F18</f>
+        <f>Model!E14</f>
         <v>0</v>
       </c>
-      <c r="L25" s="132"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="134"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="130"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="36" t="e">
+        <v>73</v>
+      </c>
+      <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="134"/>
+        <v>42.479970022756021</v>
+      </c>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="130"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="125" t="e">
-        <f>Model!Q45/Model!Q50</f>
+        <v>85</v>
+      </c>
+      <c r="C27" s="119" t="e">
+        <f>Model!P36/Model!P43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="132"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="134"/>
+        <v>75</v>
+      </c>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="130"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C28" s="36" t="e">
-        <f>C22/-Model!F10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="137"/>
+        <f>C22/-Model!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L28" s="131"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="133"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C29" s="36" t="e">
-        <f>Model!Q34/Model!Q44</f>
-        <v>#DIV/0!</v>
+        <f>Model!#REF!/Model!P35</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C30" s="36" t="e">
-        <f>(Model!Q28+Model!Q29)/Model!Q44</f>
+        <f>(Model!P23+Model!P24)/Model!P35</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6" t="e">
-        <f>(Model!Q34-Model!Q44)/Model!Q40</f>
-        <v>#DIV/0!</v>
+        <f>(Model!#REF!-Model!P35)/Model!P31</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="36" t="e">
-        <f>(Model!Q40-Model!Q49)/Main!C7</f>
-        <v>#DIV/0!</v>
+        <v>90</v>
+      </c>
+      <c r="C32" s="36">
+        <f>(Model!P31-Model!P42)/Main!C7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C33" s="36" t="e">
-        <f>Model!Q3/Model!Q40</f>
-        <v>#DIV/0!</v>
+        <f>Model!#REF!/Model!P31</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C34" s="38" t="e">
-        <f>Model!Q14/Model!Q40</f>
+        <f>Model!P8/Model!P31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C35" s="38" t="e">
-        <f>Model!Q14/Model!Q50</f>
-        <v>#DIV/0!</v>
+        <f>Model!P8/Model!P43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C36" s="23"/>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
+      <c r="E41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+    </row>
+    <row r="42" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E42" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13734,468 +13879,590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA87"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="149"/>
-    <col min="25" max="25" width="11.42578125" style="13"/>
+    <col min="6" max="6" width="11.42578125" style="13"/>
+    <col min="24" max="24" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="149" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="13" t="s">
+      <c r="W2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11">
+        <v>402.75099999999998</v>
+      </c>
+      <c r="D3" s="11">
+        <v>498.72</v>
+      </c>
+      <c r="E3" s="11">
+        <v>565.673</v>
+      </c>
+      <c r="F3" s="14">
+        <v>624.62400000000002</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11">
+        <v>153.00800000000001</v>
+      </c>
+      <c r="T3" s="11">
+        <v>154.53100000000001</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11">
+        <v>165.50800000000001</v>
+      </c>
+      <c r="X3" s="14">
+        <v>172.89</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="42">
+        <v>691.15</v>
+      </c>
+      <c r="H4" s="42">
+        <v>771.57</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="40">
+        <v>95.6</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>106.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="11">
+        <v>228.15199999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>273.685</v>
+      </c>
+      <c r="E5" s="11">
+        <v>309.32799999999997</v>
+      </c>
+      <c r="F5" s="14">
+        <v>321.97300000000001</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11">
+        <v>79.710999999999999</v>
+      </c>
+      <c r="T5" s="11">
+        <v>80.703000000000003</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <v>83.256</v>
+      </c>
+      <c r="X5" s="14">
+        <v>86.063000000000002</v>
+      </c>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10">
+        <v>72.322999999999993</v>
+      </c>
+      <c r="D6" s="10">
+        <v>85.563999999999993</v>
+      </c>
+      <c r="E6" s="10">
+        <v>108.214</v>
+      </c>
+      <c r="F6" s="15">
+        <v>109.52200000000001</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10">
+        <v>28.114000000000001</v>
+      </c>
+      <c r="T6" s="10">
+        <v>28.701000000000001</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10">
+        <v>25.445</v>
+      </c>
+      <c r="X6" s="15">
+        <v>27.733000000000001</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11">
-        <f>SUM(C3:C5)</f>
+      <c r="C7" s="10">
+        <v>97.381</v>
+      </c>
+      <c r="D7" s="10">
+        <v>116.952</v>
+      </c>
+      <c r="E7" s="10">
+        <v>130.10300000000001</v>
+      </c>
+      <c r="F7" s="15">
+        <v>137.334</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10">
+        <v>34.424999999999997</v>
+      </c>
+      <c r="T7" s="10">
+        <v>34.095999999999997</v>
+      </c>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10">
+        <v>34.862000000000002</v>
+      </c>
+      <c r="X7" s="15">
+        <v>35.759</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="10">
+        <v>70.381</v>
+      </c>
+      <c r="D8" s="10">
+        <v>77.915000000000006</v>
+      </c>
+      <c r="E8" s="10">
+        <v>90.162999999999997</v>
+      </c>
+      <c r="F8" s="15">
+        <v>110.18600000000001</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
+        <v>24.692</v>
+      </c>
+      <c r="T8" s="10">
+        <v>27.126999999999999</v>
+      </c>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10">
+        <v>30.175999999999998</v>
+      </c>
+      <c r="X8" s="15">
+        <v>31.283000000000001</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2.69</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="T9" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="10">
+        <v>17.888000000000002</v>
+      </c>
+      <c r="D10" s="10">
+        <v>17.901</v>
+      </c>
+      <c r="E10" s="10">
+        <v>18.248000000000001</v>
+      </c>
+      <c r="F10" s="15">
+        <v>20.667000000000002</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10">
+        <v>5.2619999999999996</v>
+      </c>
+      <c r="T10" s="10">
+        <v>5.2519999999999998</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="X10" s="15">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="10">
+        <f>13.244+2.181</f>
+        <v>15.425000000000001</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2.008</v>
+      </c>
+      <c r="E11" s="10">
+        <v>13.202</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10.975</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="T11" s="10">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="X11" s="15">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11">
+        <f>C3-SUM(C5:C11)</f>
+        <v>-99.276999999999987</v>
+      </c>
+      <c r="D12" s="11">
+        <f>D3-SUM(D5:D11)</f>
+        <v>-77.995000000000005</v>
+      </c>
+      <c r="E12" s="11">
+        <f>E3-SUM(E5:E11)</f>
+        <v>-104.76100000000008</v>
+      </c>
+      <c r="F12" s="14">
+        <f>F3-SUM(F5:F11)</f>
+        <v>-86.057000000000016</v>
+      </c>
+      <c r="G12" s="11">
+        <f>G3-SUM(G5:G11)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="11">
-        <f>SUM(D3:D5)</f>
+      <c r="H12" s="11">
+        <f>H3-SUM(H5:H11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="11">
-        <f>SUM(E3:E5)</f>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <f>K3-SUM(K5:K11)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="11">
-        <f>SUM(F3:F5)</f>
+      <c r="L12" s="11">
+        <f>L3-SUM(L5:L11)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="14">
-        <f>SUM(G3:G5)</f>
+      <c r="M12" s="11">
+        <f>M3-SUM(M5:M11)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="L6" s="11">
-        <f>SUM(L3:L5)</f>
+      <c r="N12" s="11">
+        <f>N3-SUM(N5:N11)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="11">
-        <f t="shared" ref="M6:Y6" si="0">SUM(M3:M5)</f>
+      <c r="O12" s="11">
+        <f>O3-SUM(O5:O11)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="11">
-        <f t="shared" si="0"/>
+      <c r="P12" s="11">
+        <f>P3-SUM(P5:P11)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="11">
-        <f t="shared" si="0"/>
+      <c r="Q12" s="11">
+        <f>Q3-SUM(Q5:Q11)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="11">
-        <f t="shared" si="0"/>
+      <c r="R12" s="11">
+        <f>R3-SUM(R5:R11)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="11">
-        <f t="shared" si="0"/>
+      <c r="S12" s="11">
+        <f>S3-SUM(S5:S11)</f>
+        <v>-21.158200000000022</v>
+      </c>
+      <c r="T12" s="11">
+        <f>T3-SUM(T5:T11)</f>
+        <v>-23.669000000000011</v>
+      </c>
+      <c r="U12" s="11">
+        <f>U3-SUM(U5:U11)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="11">
-        <f t="shared" si="0"/>
+      <c r="V12" s="11">
+        <f>V3-SUM(V5:V11)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="11">
-        <f t="shared" si="0"/>
+      <c r="W12" s="11">
+        <f>W3-SUM(W5:W11)</f>
+        <v>-14.184999999999974</v>
+      </c>
+      <c r="X12" s="14">
+        <f>X3-SUM(X5:X11)</f>
+        <v>-13.70300000000006</v>
+      </c>
+      <c r="Y12" s="11">
+        <f>Y3-SUM(Y5:Y11)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="11">
-        <f t="shared" ref="T6:AA6" si="1">SUM(T3:T5)</f>
+      <c r="Z12" s="11">
+        <f>Z3-SUM(Z5:Z11)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="42">
-        <v>344.07</v>
-      </c>
-      <c r="I7" s="42">
-        <v>503.73</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="40">
-        <v>95.6</v>
-      </c>
-      <c r="AA7" s="40">
-        <v>106.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-    </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="11">
-        <f>SUM(C8:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11:I11" si="2">SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" ref="L11" si="3">SUM(L8:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" ref="M11" si="4">SUM(M8:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" ref="N11" si="5">SUM(N8:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" ref="O11" si="6">SUM(O8:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" ref="P11" si="7">SUM(P8:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <f t="shared" ref="Q11" si="8">SUM(Q8:Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <f t="shared" ref="R11" si="9">SUM(R8:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <f t="shared" ref="S11:AA11" si="10">SUM(S8:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="11">
-        <f t="shared" ref="T11:AA11" si="11">SUM(T8:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="C13" s="10">
+        <f>1.207-28.646</f>
+        <v>-27.439</v>
+      </c>
+      <c r="D13" s="10">
+        <f>1.476-33.071</f>
+        <v>-31.594999999999999</v>
+      </c>
+      <c r="E13" s="10">
+        <f>5.362-6.676</f>
+        <v>-1.3140000000000001</v>
+      </c>
+      <c r="F13" s="15">
+        <f>10.098-5.732</f>
+        <v>4.3660000000000005</v>
+      </c>
+      <c r="G13" s="40"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -14203,27 +14470,44 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="S13" s="10">
+        <f>2.276-1.444</f>
+        <v>0.83199999999999985</v>
+      </c>
+      <c r="T13" s="10">
+        <f>2.107-1.581</f>
+        <v>0.52600000000000025</v>
+      </c>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
+      <c r="W13" s="10">
+        <f>3.189-1.292</f>
+        <v>1.897</v>
+      </c>
+      <c r="X13" s="15">
+        <f>3.852-1.12</f>
+        <v>2.7319999999999998</v>
+      </c>
+      <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-8.9320000000000004</v>
+      </c>
+      <c r="D14" s="10">
+        <v>-1.5129999999999999</v>
+      </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="F14" s="15">
+        <v>19.869</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -14231,154 +14515,177 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="S14" s="10">
+        <v>19.869</v>
+      </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11">
-        <f>C6-SUM(C11:C15)</f>
+    </row>
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="11">
+        <f>C12+SUM(C13:C14)</f>
+        <v>-135.648</v>
+      </c>
+      <c r="D15" s="11">
+        <f>D12+SUM(D13:D14)</f>
+        <v>-111.10300000000001</v>
+      </c>
+      <c r="E15" s="11">
+        <f>E12+SUM(E13:E14)</f>
+        <v>-106.07500000000007</v>
+      </c>
+      <c r="F15" s="14">
+        <f>F12+SUM(F13:F14)</f>
+        <v>-61.822000000000017</v>
+      </c>
+      <c r="G15" s="11">
+        <f>G12+SUM(G13:G14)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="11">
-        <f t="shared" ref="D16:I16" si="12">D6-SUM(D11:D15)</f>
+      <c r="H15" s="11">
+        <f>H12+SUM(H13:H14)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="12"/>
+      <c r="K15" s="11">
+        <f>K12+SUM(K13:K14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="11">
-        <f t="shared" si="12"/>
+      <c r="L15" s="11">
+        <f>L12+SUM(L13:L14)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="14">
-        <f t="shared" si="12"/>
+      <c r="M15" s="11">
+        <f>M12+SUM(M13:M14)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="11">
-        <f t="shared" si="12"/>
+      <c r="N15" s="11">
+        <f>N12+SUM(N13:N14)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="11">
-        <f t="shared" si="12"/>
+      <c r="O15" s="11">
+        <f>O12+SUM(O13:O14)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11">
-        <f t="shared" ref="L16" si="13">L6-SUM(L11:L15)</f>
+      <c r="P15" s="11">
+        <f>P12+SUM(P13:P14)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="11">
-        <f t="shared" ref="M16" si="14">M6-SUM(M11:M15)</f>
+      <c r="Q15" s="11">
+        <f>Q12+SUM(Q13:Q14)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="11">
-        <f t="shared" ref="N16" si="15">N6-SUM(N11:N15)</f>
+      <c r="R15" s="11">
+        <f>R12+SUM(R13:R14)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="11">
-        <f t="shared" ref="O16" si="16">O6-SUM(O11:O15)</f>
+      <c r="S15" s="11">
+        <f>S12+SUM(S13:S14)</f>
+        <v>-0.45720000000002159</v>
+      </c>
+      <c r="T15" s="11">
+        <f>T12+SUM(T13:T14)</f>
+        <v>-23.143000000000011</v>
+      </c>
+      <c r="U15" s="11">
+        <f>U12+SUM(U13:U14)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="11">
-        <f t="shared" ref="P16" si="17">P6-SUM(P11:P15)</f>
+      <c r="V15" s="11">
+        <f>V12+SUM(V13:V14)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="18">Q6-SUM(Q11:Q15)</f>
+      <c r="W15" s="11">
+        <f>W12+SUM(W13:W14)</f>
+        <v>-12.287999999999974</v>
+      </c>
+      <c r="X15" s="14">
+        <f>X12+SUM(X13:X14)</f>
+        <v>-10.97100000000006</v>
+      </c>
+      <c r="Y15" s="11">
+        <f>Y12+SUM(Y13:Y14)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="11">
-        <f t="shared" ref="R16" si="19">R6-SUM(R11:R15)</f>
+      <c r="Z15" s="11">
+        <f>Z12+SUM(Z13:Z14)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="11">
-        <f t="shared" ref="S16:AA16" si="20">S6-SUM(S11:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="11">
-        <f t="shared" ref="T16:AA16" si="21">T6-SUM(T11:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="14">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1.643</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2.9079999999999999</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3.5619999999999998</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10">
+        <f>0.498+0.018</f>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="T16" s="10">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="X16" s="15">
+        <v>2.089</v>
+      </c>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
+        <v>226</v>
+      </c>
+      <c r="C17" s="10">
+        <f>0.118-0.072</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <f>0.213-0.11</f>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E17" s="10">
+        <f>1.873+0.964</f>
+        <v>2.8369999999999997</v>
+      </c>
+      <c r="F17" s="15">
+        <f>-1.8-0.061</f>
+        <v>-1.861</v>
+      </c>
+      <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -14386,55 +14693,133 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
+      <c r="S17" s="10">
+        <f>-1.036+0.017</f>
+        <v>-1.0190000000000001</v>
+      </c>
+      <c r="T17" s="10">
+        <f>0.174-0.18</f>
+        <v>-6.0000000000000053E-3</v>
+      </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
+      <c r="W17" s="10">
+        <f>-0.126+0.321</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="X17" s="15">
+        <f>-0.051-0.049</f>
+        <v>-0.1</v>
+      </c>
+      <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" ref="C18:F18" si="0">C15-SUM(C16:C17)</f>
+        <v>-137.10999999999999</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>-112.849</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
+        <v>-111.82000000000008</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>-63.523000000000017</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="K18" s="11">
+        <f t="shared" ref="K18" si="1">K15-SUM(K16:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" ref="L18" si="2">L15-SUM(L16:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" ref="M18" si="3">M15-SUM(M16:M17)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" ref="N18" si="4">N15-SUM(N16:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" ref="O18" si="5">O15-SUM(O16:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" ref="P18" si="6">P15-SUM(P16:P17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" ref="Q18" si="7">Q15-SUM(Q16:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" ref="R18" si="8">R15-SUM(R16:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" ref="S18:Z18" si="9">S15-SUM(S16:S17)</f>
+        <v>4.5799999999978525E-2</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="9"/>
+        <v>-23.18490000000001</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" si="9"/>
+        <v>-14.037999999999974</v>
+      </c>
+      <c r="X18" s="14">
+        <f t="shared" si="9"/>
+        <v>-12.960000000000061</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>52.018999999999998</v>
+      </c>
+      <c r="D19" s="10">
+        <v>56.393999999999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>57.3</v>
+      </c>
+      <c r="F19" s="15">
+        <v>58.353999999999999</v>
+      </c>
+      <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -14442,1304 +14827,1257 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="S19" s="10">
+        <v>57.884999999999998</v>
+      </c>
+      <c r="T19" s="10">
+        <v>58.286000000000001</v>
+      </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
+      <c r="W19" s="10">
+        <v>59.445999999999998</v>
+      </c>
+      <c r="X19" s="15">
+        <v>60.161999999999999</v>
+      </c>
+      <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-    </row>
-    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="11">
-        <f>C16+SUM(C17:C19)</f>
+        <v>22</v>
+      </c>
+      <c r="C20" s="148">
+        <f t="shared" ref="C20:E20" si="10">(C18+C17)/C19</f>
+        <v>-2.6348834079855439</v>
+      </c>
+      <c r="D20" s="148">
+        <f t="shared" si="10"/>
+        <v>-1.9992552399191406</v>
+      </c>
+      <c r="E20" s="148">
+        <f t="shared" si="10"/>
+        <v>-1.9019720767888322</v>
+      </c>
+      <c r="F20" s="53">
+        <f>(F18+F17)/F19</f>
+        <v>-1.1204716043458891</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
+      <c r="K20" s="148" t="e">
+        <f t="shared" ref="K20" si="11">(K18+K17)/K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="148" t="e">
+        <f t="shared" ref="L20" si="12">(L18+L17)/L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="148" t="e">
+        <f t="shared" ref="M20" si="13">(M18+M17)/M19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="148" t="e">
+        <f t="shared" ref="N20" si="14">(N18+N17)/N19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="148" t="e">
+        <f t="shared" ref="O20" si="15">(O18+O17)/O19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="148" t="e">
+        <f t="shared" ref="P20" si="16">(P18+P17)/P19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="148" t="e">
+        <f t="shared" ref="Q20" si="17">(Q18+Q17)/Q19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="148" t="e">
+        <f t="shared" ref="R20" si="18">(R18+R17)/R19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="148">
+        <f t="shared" ref="S20" si="19">(S18+S17)/S19</f>
+        <v>-1.6812645763151449E-2</v>
+      </c>
+      <c r="T20" s="148">
+        <f t="shared" ref="T20" si="20">(T18+T17)/T19</f>
+        <v>-0.3978811378375598</v>
+      </c>
+      <c r="U20" s="148" t="e">
+        <f t="shared" ref="U20" si="21">(U18+U17)/U19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" s="148" t="e">
+        <f t="shared" ref="V20" si="22">(V18+V17)/V19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="148">
+        <f t="shared" ref="W20" si="23">(W18+W17)/W19</f>
+        <v>-0.23286680348551583</v>
+      </c>
+      <c r="X20" s="147">
+        <f t="shared" ref="X20" si="24">(X18+X17)/X19</f>
+        <v>-0.21708054918387124</v>
+      </c>
+      <c r="Y20" s="148" t="e">
+        <f t="shared" ref="Y20" si="25">(Y18+Y17)/Y19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z20" s="148" t="e">
+        <f t="shared" ref="Z20" si="26">(Z18+Z17)/Z19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="44">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0.81</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="49">
+        <v>0.16</v>
+      </c>
+      <c r="Z21" s="49">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3">
+        <f>1-C5/C3</f>
+        <v>0.43351599375296401</v>
+      </c>
+      <c r="D22" s="3">
+        <f>1-D5/D3</f>
+        <v>0.45122513634905359</v>
+      </c>
+      <c r="E22" s="3">
+        <f>1-E5/E3</f>
+        <v>0.45316817313182711</v>
+      </c>
+      <c r="F22" s="6">
+        <f>1-F5/F3</f>
+        <v>0.48453309511001819</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="K22" s="3" t="e">
+        <f>1-K5/K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="3" t="e">
+        <f>1-L5/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="3" t="e">
+        <f>1-M5/M3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="3" t="e">
+        <f>1-N5/N3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="3" t="e">
+        <f>1-O5/O3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="3" t="e">
+        <f>1-P5/P3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="3" t="e">
+        <f>1-Q5/Q3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="3" t="e">
+        <f>1-R5/R3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="3">
+        <f>1-S5/S3</f>
+        <v>0.47904031161769323</v>
+      </c>
+      <c r="T22" s="3">
+        <f>1-T5/T3</f>
+        <v>0.47775527240488969</v>
+      </c>
+      <c r="U22" s="3" t="e">
+        <f>1-U5/U3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="3" t="e">
+        <f>1-V5/V3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="3">
+        <f>1-W5/W3</f>
+        <v>0.49696691398603088</v>
+      </c>
+      <c r="X22" s="6">
+        <f>1-X5/X3</f>
+        <v>0.50220949736826881</v>
+      </c>
+      <c r="Y22" s="3" t="e">
+        <f>1-Y5/Y3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z22" s="3" t="e">
+        <f>1-Z5/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C18/C3</f>
+        <v>-0.34043366745209819</v>
+      </c>
+      <c r="D23" s="4">
+        <f>D18/D3</f>
+        <v>-0.22627726981071541</v>
+      </c>
+      <c r="E23" s="4">
+        <f>E18/E3</f>
+        <v>-0.19767604251926479</v>
+      </c>
+      <c r="F23" s="7">
+        <f>F18/F3</f>
+        <v>-0.10169798150567384</v>
+      </c>
+      <c r="G23" s="47">
+        <f>G18/G4</f>
         <v>0</v>
       </c>
-      <c r="D20" s="11">
-        <f>D16+SUM(D17:D19)</f>
+      <c r="H23" s="47">
+        <f>H18/H4</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" ref="E20:I20" si="22">E16+SUM(E17:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" ref="L20" si="23">L16+SUM(L17:L19)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" ref="M20" si="24">M16+SUM(M17:M19)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" ref="N20" si="25">N16+SUM(N17:N19)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" ref="O20" si="26">O16+SUM(O17:O19)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <f t="shared" ref="P20" si="27">P16+SUM(P17:P19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="28">Q16+SUM(Q17:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <f t="shared" ref="R20" si="29">R16+SUM(R17:R19)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="11">
-        <f t="shared" ref="S20:AA20" si="30">S16+SUM(S17:S19)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="11">
-        <f t="shared" ref="T20:AA20" si="31">T16+SUM(T17:T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="11">
+      <c r="K23" s="4" t="e">
+        <f>K18/K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="4" t="e">
+        <f>L18/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="4" t="e">
+        <f>M18/M3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="4" t="e">
+        <f>N18/N3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="4" t="e">
+        <f>O18/O3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="4" t="e">
+        <f>P18/P3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="4" t="e">
+        <f>Q18/Q3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="4" t="e">
+        <f>R18/R3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="4">
+        <f>S18/S3</f>
+        <v>2.9933075394736563E-4</v>
+      </c>
+      <c r="T23" s="4">
+        <f>T18/T3</f>
+        <v>-0.15003397376578168</v>
+      </c>
+      <c r="U23" s="4" t="e">
+        <f>U18/U3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="4" t="e">
+        <f>V18/V3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="4">
+        <f>W18/W3</f>
+        <v>-8.481765231892098E-2</v>
+      </c>
+      <c r="X23" s="7">
+        <f>X18/X3</f>
+        <v>-7.4960957834461578E-2</v>
+      </c>
+      <c r="Y23" s="4" t="e">
+        <f>Y18/Y3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="4" t="e">
+        <f>Z18/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <f>D3/C3-1</f>
+        <v>0.23828370382693054</v>
+      </c>
+      <c r="E24" s="39">
+        <f>E3/D3-1</f>
+        <v>0.13424967917869735</v>
+      </c>
+      <c r="F24" s="6">
+        <f>F3/E3-1</f>
+        <v>0.10421391864204232</v>
+      </c>
+      <c r="G24" s="48">
+        <f>G4/F3-1</f>
+        <v>0.10650567381336606</v>
+      </c>
+      <c r="H24" s="48">
+        <f>H4/G4-1</f>
+        <v>0.11635679664327592</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="e">
+        <f>O3/K3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="4" t="e">
+        <f>P3/L3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="4" t="e">
+        <f>Q3/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="4" t="e">
+        <f>R3/N3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="4" t="e">
+        <f>S3/O3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="4" t="e">
+        <f>T3/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="4" t="e">
+        <f>U3/Q3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="4" t="e">
+        <f>V3/R3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="4">
+        <f>W3/S3-1</f>
+        <v>8.1695074767332398E-2</v>
+      </c>
+      <c r="X24" s="7">
+        <f>X3/T3-1</f>
+        <v>0.11880464113996525</v>
+      </c>
+      <c r="Y24" s="4" t="e">
+        <f>Y3/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="4" t="e">
+        <f>Z3/V3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C6/C3</f>
+        <v>0.17957249019865873</v>
+      </c>
+      <c r="D25" s="4">
+        <f>D6/D3</f>
+        <v>0.17156721206288095</v>
+      </c>
+      <c r="E25" s="4">
+        <f>E6/E3</f>
+        <v>0.19130133487014583</v>
+      </c>
+      <c r="F25" s="7">
+        <f>F6/F3</f>
+        <v>0.17534068495606958</v>
+      </c>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="K25" s="4" t="e">
+        <f>K6/K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="4" t="e">
+        <f t="shared" ref="L25:Z25" si="27">L6/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="27"/>
+        <v>0.18374202656070271</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="27"/>
+        <v>0.18572972413302186</v>
+      </c>
+      <c r="U25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="27"/>
+        <v>0.15373879208255795</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" si="27"/>
+        <v>0.16040835213141305</v>
+      </c>
+      <c r="Y25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="4">
+        <f>C7/C3</f>
+        <v>0.2417895920804666</v>
+      </c>
+      <c r="D26" s="4">
+        <f>D7/D3</f>
+        <v>0.2345043310875842</v>
+      </c>
+      <c r="E26" s="4">
+        <f>E7/E3</f>
+        <v>0.22999683562765061</v>
+      </c>
+      <c r="F26" s="7">
+        <f>F7/F3</f>
+        <v>0.2198666717897487</v>
+      </c>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="K26" s="4" t="e">
+        <f>K7/K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="4" t="e">
+        <f t="shared" ref="L26:Z26" si="28">L7/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="28"/>
+        <v>0.22498823590923347</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="28"/>
+        <v>0.22064181296956595</v>
+      </c>
+      <c r="U26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="28"/>
+        <v>0.21063634386253233</v>
+      </c>
+      <c r="X26" s="7">
+        <f t="shared" si="28"/>
+        <v>0.20683093296315577</v>
+      </c>
+      <c r="Y26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="4" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="4">
+        <f>C11/C3</f>
+        <v>3.8299097953822588E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <f>D8/D3</f>
+        <v>0.15622994866859161</v>
+      </c>
+      <c r="E27" s="4">
+        <f>E8/E3</f>
+        <v>0.15939067270313415</v>
+      </c>
+      <c r="F27" s="7">
+        <f>F8/F3</f>
+        <v>0.17640372448064756</v>
+      </c>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="K27" s="4" t="e">
+        <f>K8/K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="4" t="e">
+        <f t="shared" ref="L27:Z27" si="29">L8/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="29"/>
+        <v>0.16137718289239777</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="29"/>
+        <v>0.17554406559201713</v>
+      </c>
+      <c r="U27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="29"/>
+        <v>0.18232351306281266</v>
+      </c>
+      <c r="X27" s="7">
+        <f t="shared" si="29"/>
+        <v>0.18094163919255019</v>
+      </c>
+      <c r="Y27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="149">
+        <f>D20-C20</f>
+        <v>0.63562816806640332</v>
+      </c>
+      <c r="E28" s="149">
+        <f>E20-D20</f>
+        <v>9.7283163130308381E-2</v>
+      </c>
+      <c r="F28" s="150">
+        <f>F20-E20</f>
+        <v>0.78150047244294307</v>
+      </c>
+      <c r="G28" s="151">
+        <f>G21-F20</f>
+        <v>1.6804716043458892</v>
+      </c>
+      <c r="H28" s="151">
+        <f>H21-G21</f>
+        <v>0.25</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="149" t="e">
+        <f t="shared" ref="O28:Z28" si="30">O20-N20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="149">
+        <f t="shared" si="30"/>
+        <v>-0.38106849207440835</v>
+      </c>
+      <c r="U28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="150">
+        <f t="shared" si="30"/>
+        <v>1.5786254301644598E-2</v>
+      </c>
+      <c r="Y28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="149" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" ref="C31:D31" si="31">C32+C33+C34-C57-C53</f>
+        <v>-14.930999999999926</v>
+      </c>
+      <c r="D31" s="11">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-    </row>
-    <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="11">
-        <f>C20-SUM(C21:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="11">
-        <f t="shared" ref="D23:G23" si="32">D20-SUM(D21:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
+        <v>-120.89899999999994</v>
+      </c>
+      <c r="E31" s="11">
+        <f>E32+E33+E34-E57-E53</f>
+        <v>-233.03700000000001</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" ref="F31:H31" si="32">F32+F33+F34-F57-F53</f>
+        <v>-162.47899999999998</v>
+      </c>
+      <c r="G31" s="11">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="F23" s="11">
+      <c r="H31" s="11">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G23" s="14">
-        <f t="shared" si="32"/>
+      <c r="K31" s="11">
+        <f t="shared" ref="K31:Z31" si="33">K32+K33+K34-K57-K53</f>
         <v>0</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="L23" s="11">
-        <f t="shared" ref="L23" si="33">L20-SUM(L21:L22)</f>
+      <c r="L31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M23" s="11">
-        <f t="shared" ref="M23" si="34">M20-SUM(M21:M22)</f>
+      <c r="M31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="N23" s="11">
-        <f t="shared" ref="N23" si="35">N20-SUM(N21:N22)</f>
+      <c r="N31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O23" s="11">
-        <f t="shared" ref="O23" si="36">O20-SUM(O21:O22)</f>
+      <c r="O31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="P23" s="11">
-        <f t="shared" ref="P23" si="37">P20-SUM(P21:P22)</f>
+      <c r="P31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="11">
-        <f t="shared" ref="Q23" si="38">Q20-SUM(Q21:Q22)</f>
+      <c r="Q31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="R23" s="11">
-        <f t="shared" ref="R23" si="39">R20-SUM(R21:R22)</f>
+      <c r="R31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="S23" s="11">
-        <f t="shared" ref="S23:AA23" si="40">S20-SUM(S21:S22)</f>
+      <c r="S31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="T23" s="11">
-        <f t="shared" ref="T23:AA23" si="41">T20-SUM(T21:T22)</f>
+      <c r="T31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="U23" s="11">
-        <f t="shared" si="41"/>
+      <c r="U31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="V23" s="11">
-        <f t="shared" si="41"/>
+      <c r="V31" s="11">
+        <f t="shared" si="33"/>
+        <v>-162.47899999999998</v>
+      </c>
+      <c r="W31" s="11">
+        <f t="shared" si="33"/>
+        <v>-148.24199999999996</v>
+      </c>
+      <c r="X31" s="14">
+        <f>X32+X33+X34-X57-X53</f>
+        <v>-116.88900000000001</v>
+      </c>
+      <c r="Y31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W23" s="11">
-        <f t="shared" si="41"/>
+      <c r="Z31" s="11">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X23" s="11">
-        <f t="shared" si="41"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="10">
+        <v>407.70299999999997</v>
+      </c>
+      <c r="D32" s="10">
+        <v>322.84800000000001</v>
+      </c>
+      <c r="E32" s="10">
+        <v>199.6</v>
+      </c>
+      <c r="F32" s="15">
+        <v>229.655</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10">
+        <f>F32</f>
+        <v>229.655</v>
+      </c>
+      <c r="W32" s="10">
+        <v>274.52199999999999</v>
+      </c>
+      <c r="X32" s="15">
+        <v>303.82299999999998</v>
+      </c>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2.302</v>
+      </c>
+      <c r="F33" s="15">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10">
+        <f t="shared" ref="V33:V39" si="34">F33</f>
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="W33" s="10">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="X33" s="15">
+        <v>2.5169999999999999</v>
+      </c>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="10">
+        <v>131.352</v>
+      </c>
+      <c r="D34" s="10">
+        <v>104.878</v>
+      </c>
+      <c r="E34" s="10">
+        <v>233.75299999999999</v>
+      </c>
+      <c r="F34" s="15">
+        <v>94.352999999999994</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10">
+        <f t="shared" si="34"/>
+        <v>94.352999999999994</v>
+      </c>
+      <c r="W34" s="10">
+        <v>63.939</v>
+      </c>
+      <c r="X34" s="15">
+        <v>68.227000000000004</v>
+      </c>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="10">
+        <v>36.43</v>
+      </c>
+      <c r="D35" s="10">
+        <v>46.978999999999999</v>
+      </c>
+      <c r="E35" s="10">
+        <v>46.734999999999999</v>
+      </c>
+      <c r="F35" s="15">
+        <v>42.899000000000001</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10">
+        <f t="shared" si="34"/>
+        <v>42.899000000000001</v>
+      </c>
+      <c r="W35" s="10">
+        <v>54.292000000000002</v>
+      </c>
+      <c r="X35" s="15">
+        <v>59.435000000000002</v>
+      </c>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.845</v>
+      </c>
+      <c r="E36" s="10">
+        <v>8.9090000000000007</v>
+      </c>
+      <c r="F36" s="15">
+        <v>9.1929999999999996</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10">
+        <f t="shared" si="34"/>
+        <v>9.1929999999999996</v>
+      </c>
+      <c r="W36" s="10">
+        <v>8.5790000000000006</v>
+      </c>
+      <c r="X36" s="15">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="10">
+        <v>8.8610000000000007</v>
+      </c>
+      <c r="D37" s="10">
+        <v>10.531000000000001</v>
+      </c>
+      <c r="E37" s="10">
+        <v>10.832000000000001</v>
+      </c>
+      <c r="F37" s="15">
+        <v>11.625</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10">
+        <f t="shared" si="34"/>
+        <v>11.625</v>
+      </c>
+      <c r="W37" s="10">
+        <v>15.542</v>
+      </c>
+      <c r="X37" s="15">
+        <v>12.535</v>
+      </c>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="10">
+        <v>19.042000000000002</v>
+      </c>
+      <c r="D38" s="10">
+        <v>25.076000000000001</v>
+      </c>
+      <c r="E38" s="10">
+        <v>21.117000000000001</v>
+      </c>
+      <c r="F38" s="15">
+        <v>27.521000000000001</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10">
+        <f t="shared" si="34"/>
+        <v>27.521000000000001</v>
+      </c>
+      <c r="W38" s="10">
+        <v>28.355</v>
+      </c>
+      <c r="X38" s="15">
+        <v>26.657</v>
+      </c>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="10">
+        <v>8.2579999999999991</v>
+      </c>
+      <c r="D39" s="10">
+        <v>7.32</v>
+      </c>
+      <c r="E39" s="10">
+        <v>7.8280000000000003</v>
+      </c>
+      <c r="F39" s="15">
+        <v>8.7409999999999997</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10">
+        <f t="shared" si="34"/>
+        <v>8.7409999999999997</v>
+      </c>
+      <c r="W39" s="10">
+        <v>9.0120000000000005</v>
+      </c>
+      <c r="X39" s="15">
+        <v>9.4130000000000003</v>
+      </c>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+    </row>
+    <row r="40" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" ref="C40" si="35">SUM(C32:C39)</f>
+        <v>616.21600000000001</v>
+      </c>
+      <c r="D40" s="11">
+        <f>SUM(D32:D39)</f>
+        <v>522.45000000000005</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" ref="E40:F40" si="36">SUM(E32:E39)</f>
+        <v>531.07599999999991</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="36"/>
+        <v>427.964</v>
+      </c>
+      <c r="K40" s="11">
+        <f t="shared" ref="K40:T40" si="37">SUM(K32:K39)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="14">
-        <f t="shared" si="41"/>
+      <c r="L40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="11">
-        <f t="shared" si="41"/>
+      <c r="M40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="11">
-        <f t="shared" si="41"/>
+      <c r="N40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-    </row>
-    <row r="25" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="e">
-        <f>C23/C24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="2" t="e">
-        <f>D23/D24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="2" t="e">
-        <f>E23/E24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="2" t="e">
-        <f>F23/F24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="58" t="e">
-        <f>G23/G24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="L25" s="2" t="e">
-        <f>L23/L24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="2" t="e">
-        <f t="shared" ref="M25:Y25" si="42">M23/M24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="2" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="2" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="2" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="2" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="2" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="2" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="2" t="e">
-        <f t="shared" ref="T25:AA25" si="43">T23/T24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="2" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="2" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="2" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="2" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="35" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="2" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" s="2" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="44">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I26" s="45">
-        <v>0.81</v>
-      </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="49">
-        <v>0.16</v>
-      </c>
-      <c r="AA26" s="49">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3" t="e">
-        <f>1-C11/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="3" t="e">
-        <f>1-D11/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="3" t="e">
-        <f>1-E11/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="3" t="e">
-        <f>1-F11/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="6" t="e">
-        <f>1-G11/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="L27" s="3" t="e">
-        <f t="shared" ref="L27:W27" si="44">1-L11/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="3" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="3" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="3" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="3" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="3" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="3" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="3" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="3" t="e">
-        <f t="shared" ref="T27:AA27" si="45">1-T11/T6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="3" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="3" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="3" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="3" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="6" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="3" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="3" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="4" t="e">
-        <f>C23/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="4" t="e">
-        <f>D23/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="4" t="e">
-        <f>E23/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4" t="e">
-        <f>F23/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="7" t="e">
-        <f>G23/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="47">
-        <f>H23/H7</f>
+      <c r="O40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I28" s="47">
-        <f>I23/I7</f>
+      <c r="P40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L28" s="4" t="e">
-        <f t="shared" ref="L28:W28" si="46">L23/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="4" t="e">
-        <f t="shared" ref="T28:AA28" si="47">T23/T6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="7" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="e">
-        <f>D6/C6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="3" t="e">
-        <f>E6/D6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="39" t="e">
-        <f>F6/E6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="6" t="e">
-        <f>G6/F6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="48" t="e">
-        <f>H7/G6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="48">
-        <f>I7/H7-1</f>
-        <v>0.46403348155898527</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4" t="e">
-        <f t="shared" ref="P29:W29" si="48">P6/L6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="4" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="4" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f t="shared" ref="T29" si="49">T6/P6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f t="shared" ref="U29" si="50">U6/Q6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="4" t="e">
-        <f t="shared" ref="V29" si="51">V6/R6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="4" t="e">
-        <f t="shared" ref="W29" si="52">W6/S6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="4" t="e">
-        <f t="shared" ref="X29" si="53">X6/T6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y29" s="7" t="e">
-        <f t="shared" ref="Y29" si="54">Y6/U6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z29" s="4" t="e">
-        <f t="shared" ref="Z29" si="55">Z6/V6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA29" s="4" t="e">
-        <f t="shared" ref="AA29" si="56">AA6/W6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="4" t="e">
-        <f>C12/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="4" t="e">
-        <f>D12/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="4" t="e">
-        <f>E12/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4" t="e">
-        <f>F12/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="7" t="e">
-        <f>G12/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="L30" s="4" t="e">
-        <f t="shared" ref="L30:W30" si="57">L12/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="4" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="4" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" s="4" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="4" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="4" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="4" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="4" t="e">
-        <f t="shared" ref="T30:AA30" si="58">T12/T6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="4" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="4" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="4" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="4" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y30" s="7" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="4" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA30" s="4" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="4" t="e">
-        <f t="shared" ref="C31:F31" si="59">C13/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="4" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="4" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="4" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="7" t="e">
-        <f>G13/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="L31" s="4" t="e">
-        <f t="shared" ref="L31:W31" si="60">L13/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="4" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="4" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="4" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="4" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="4" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="4" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="4" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="4" t="e">
-        <f t="shared" ref="T31:AA31" si="61">T13/T6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="4" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="4" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="4" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" s="4" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y31" s="7" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z31" s="4" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA31" s="4" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="4" t="e">
-        <f>C15/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="4" t="e">
-        <f>D15/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="4" t="e">
-        <f>E15/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="4" t="e">
-        <f>F15/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="7" t="e">
-        <f>G15/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="L32" s="4" t="e">
-        <f t="shared" ref="L32:W32" si="62">L15/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="4" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="4" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="4" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="4" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="4" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="4" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="4" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="4" t="e">
-        <f t="shared" ref="T32:AA32" si="63">T15/T6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="4" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="4" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="4" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" s="4" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="7" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z32" s="4" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA32" s="4" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="e">
-        <f t="shared" ref="E33:G34" si="64">E3/D3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="4" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="7" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="4" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="7" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="e">
-        <f>-(D23/C23-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="3" t="e">
-        <f>-(E23/D23-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="39" t="e">
-        <f>F23/E23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="6" t="e">
-        <f>G23/F23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="61" t="e">
-        <f>H25/G25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="61" t="e">
-        <f>I25/H25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4" t="e">
-        <f t="shared" ref="P35:X35" si="65">P23/L23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="4" t="e">
-        <f t="shared" ref="T35" si="66">T23/P23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U35" s="4" t="e">
-        <f t="shared" ref="U35" si="67">U23/Q23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V35" s="4" t="e">
-        <f t="shared" ref="V35" si="68">V23/R23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" s="4" t="e">
-        <f t="shared" ref="W35" si="69">W23/S23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X35" s="4" t="e">
-        <f t="shared" ref="X35" si="70">X23/T23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y35" s="7" t="e">
-        <f t="shared" ref="Y35" si="71">Y23/U23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z35" s="4" t="e">
-        <f t="shared" ref="Z35" si="72">Z23/V23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA35" s="4" t="e">
-        <f t="shared" ref="AA35" si="73">AA23/W23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="53" t="e">
-        <f>C17/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="53" t="e">
-        <f>D17/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="53" t="e">
-        <f>E17/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="53" t="e">
-        <f>F17/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="54" t="e">
-        <f>G17/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="53">
-        <f>H17/H7</f>
+      <c r="Q40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I36" s="53">
-        <f>I17/I7</f>
+      <c r="R40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="150"/>
-      <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="55" t="e">
-        <f>-C17/C16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="55" t="e">
-        <f t="shared" ref="D37:I37" si="74">-D17/D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="55" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="55" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="54" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="53" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="53" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="150"/>
-      <c r="X37" s="4"/>
-    </row>
-    <row r="40" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="11">
-        <f>C41+C43-C55-C56-C63</f>
+      <c r="S40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="D40" s="11">
-        <f t="shared" ref="D40:G40" si="75">D41+D43-D55-D56-D63</f>
+      <c r="T40" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E40" s="11">
-        <f t="shared" si="75"/>
+      <c r="U40" s="11">
+        <f t="shared" ref="U40:Z40" si="38">SUM(U32:U39)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="11">
-        <f t="shared" si="75"/>
+      <c r="V40" s="11">
+        <f t="shared" si="38"/>
+        <v>427.964</v>
+      </c>
+      <c r="W40" s="11">
+        <f t="shared" si="38"/>
+        <v>458.49799999999999</v>
+      </c>
+      <c r="X40" s="14">
+        <f t="shared" si="38"/>
+        <v>491.38300000000004</v>
+      </c>
+      <c r="Y40" s="11">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G40" s="14">
-        <f t="shared" si="75"/>
+      <c r="Z40" s="11">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L40" s="11">
-        <f t="shared" ref="L40" si="76">L41+L43-L55-L56-L63</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <f t="shared" ref="M40" si="77">M41+M43-M55-M56-M63</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <f t="shared" ref="N40" si="78">N41+N43-N55-N56-N63</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="11">
-        <f t="shared" ref="O40" si="79">O41+O43-O55-O56-O63</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="11">
-        <f t="shared" ref="P40" si="80">P41+P43-P55-P56-P63</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" ref="Q40" si="81">Q41+Q43-Q55-Q56-Q63</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" ref="R40" si="82">R41+R43-R55-R56-R63</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" ref="S40" si="83">S41+S43-S55-S56-S63</f>
-        <v>0</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" ref="T40" si="84">T41+T43-T55-T56-T63</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="11">
-        <f t="shared" ref="U40:AA40" si="85">U41+U43-U55-U56-U63</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="14">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="C41" s="10">
+        <v>49.558</v>
+      </c>
+      <c r="D41" s="10">
+        <v>66.608000000000004</v>
+      </c>
+      <c r="E41" s="10">
+        <v>56.695</v>
+      </c>
+      <c r="F41" s="15">
+        <v>41.177999999999997</v>
+      </c>
+      <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -15750,22 +16088,36 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="15"/>
+      <c r="V41" s="10">
+        <f t="shared" ref="V41:V48" si="39">F41</f>
+        <v>41.177999999999997</v>
+      </c>
+      <c r="W41" s="10">
+        <v>37.871000000000002</v>
+      </c>
+      <c r="X41" s="15">
+        <v>35.491</v>
+      </c>
+      <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="C42" s="10">
+        <v>34.709000000000003</v>
+      </c>
+      <c r="D42" s="10">
+        <v>52.277999999999999</v>
+      </c>
+      <c r="E42" s="10">
+        <v>39.837000000000003</v>
+      </c>
+      <c r="F42" s="15">
+        <v>35.453000000000003</v>
+      </c>
+      <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -15776,22 +16128,36 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="15"/>
+      <c r="V42" s="10">
+        <f t="shared" si="39"/>
+        <v>35.453000000000003</v>
+      </c>
+      <c r="W42" s="10">
+        <v>34.957000000000001</v>
+      </c>
+      <c r="X42" s="15">
+        <v>33.411000000000001</v>
+      </c>
+      <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="15"/>
+        <v>212</v>
+      </c>
+      <c r="C43" s="10">
+        <v>32.781999999999996</v>
+      </c>
+      <c r="D43" s="10">
+        <v>26.93</v>
+      </c>
+      <c r="E43" s="10">
+        <v>26.41</v>
+      </c>
+      <c r="F43" s="15">
+        <v>26.09</v>
+      </c>
+      <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -15802,22 +16168,36 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="15"/>
+      <c r="V43" s="10">
+        <f t="shared" si="39"/>
+        <v>26.09</v>
+      </c>
+      <c r="W43" s="10">
+        <v>31.861000000000001</v>
+      </c>
+      <c r="X43" s="15">
+        <v>30.094000000000001</v>
+      </c>
+      <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="C44" s="10">
+        <v>15.183999999999999</v>
+      </c>
+      <c r="D44" s="10">
+        <v>17.039000000000001</v>
+      </c>
+      <c r="E44" s="10">
+        <v>18.713000000000001</v>
+      </c>
+      <c r="F44" s="15">
+        <v>21.48</v>
+      </c>
+      <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
@@ -15828,22 +16208,36 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="15"/>
+      <c r="V44" s="10">
+        <f t="shared" si="39"/>
+        <v>21.48</v>
+      </c>
+      <c r="W44" s="10">
+        <v>22.172000000000001</v>
+      </c>
+      <c r="X44" s="15">
+        <v>23.151</v>
+      </c>
+      <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="15"/>
+        <v>79</v>
+      </c>
+      <c r="C45" s="10">
+        <v>184.85900000000001</v>
+      </c>
+      <c r="D45" s="10">
+        <v>162.46100000000001</v>
+      </c>
+      <c r="E45" s="10">
+        <v>145.68100000000001</v>
+      </c>
+      <c r="F45" s="15">
+        <v>121.572</v>
+      </c>
+      <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -15854,22 +16248,36 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="15"/>
+      <c r="V45" s="10">
+        <f t="shared" si="39"/>
+        <v>121.572</v>
+      </c>
+      <c r="W45" s="10">
+        <v>115.249</v>
+      </c>
+      <c r="X45" s="15">
+        <v>108.402</v>
+      </c>
+      <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="C46" s="10">
+        <v>462.274</v>
+      </c>
+      <c r="D46" s="10">
+        <v>512.86900000000003</v>
+      </c>
+      <c r="E46" s="10">
+        <v>512.86900000000003</v>
+      </c>
+      <c r="F46" s="15">
+        <v>512.86900000000003</v>
+      </c>
+      <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -15880,111 +16288,76 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="15"/>
+      <c r="V46" s="10">
+        <f t="shared" si="39"/>
+        <v>512.86900000000003</v>
+      </c>
+      <c r="W46" s="10">
+        <v>512.86900000000003</v>
+      </c>
+      <c r="X46" s="15">
+        <v>512.86900000000003</v>
+      </c>
+      <c r="Y46" s="10"/>
       <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-    </row>
-    <row r="47" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="11">
-        <f t="shared" ref="C47:D47" si="86">SUM(C41:C46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="11">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <f>SUM(E41:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <f t="shared" ref="F47:G47" si="87">SUM(F41:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="14">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="11">
-        <f t="shared" ref="L47:W47" si="88">SUM(L41:L46)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="11">
-        <f t="shared" ref="V47:AA47" si="89">SUM(V41:V46)</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="11">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="11">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="14">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="11">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="11">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="10">
+        <v>18.693999999999999</v>
+      </c>
+      <c r="D47" s="10">
+        <v>22.103000000000002</v>
+      </c>
+      <c r="E47" s="10">
+        <v>16.186</v>
+      </c>
+      <c r="F47" s="15">
+        <v>12.21</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10">
+        <f t="shared" si="39"/>
+        <v>12.21</v>
+      </c>
+      <c r="W47" s="10">
+        <v>11.702</v>
+      </c>
+      <c r="X47" s="15">
+        <v>11.238</v>
+      </c>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+    </row>
+    <row r="48" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="15"/>
+        <v>214</v>
+      </c>
+      <c r="C48" s="10">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="E48" s="10">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="F48" s="15">
+        <v>2.609</v>
+      </c>
+      <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -15995,48 +16368,121 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="15"/>
+      <c r="V48" s="10">
+        <f t="shared" si="39"/>
+        <v>2.609</v>
+      </c>
+      <c r="W48" s="10">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="X48" s="15">
+        <v>2.9849999999999999</v>
+      </c>
+      <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="15"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="11">
+        <f>SUM(C40:C48)</f>
+        <v>1416.7019999999998</v>
+      </c>
+      <c r="D49" s="11">
+        <f>SUM(D40:D48)</f>
+        <v>1385.0450000000001</v>
+      </c>
+      <c r="E49" s="11">
+        <f>SUM(E40:E48)</f>
+        <v>1349.7259999999999</v>
+      </c>
+      <c r="F49" s="14">
+        <f>SUM(F40:F48)</f>
+        <v>1201.4250000000002</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" ref="K49:T49" si="40">SUM(K40:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="11">
+        <f t="shared" ref="U49:Z49" si="41">SUM(U40:U48)</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="11">
+        <f t="shared" si="41"/>
+        <v>1201.4250000000002</v>
+      </c>
+      <c r="W49" s="11">
+        <f t="shared" si="41"/>
+        <v>1228.3870000000002</v>
+      </c>
+      <c r="X49" s="14">
+        <f t="shared" si="41"/>
+        <v>1249.0240000000001</v>
+      </c>
+      <c r="Y49" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="C50" s="10">
+        <v>7.8869999999999996</v>
+      </c>
+      <c r="D50" s="10">
+        <v>10.597</v>
+      </c>
+      <c r="E50" s="10">
+        <v>10.055</v>
+      </c>
+      <c r="F50" s="15">
+        <v>19.353000000000002</v>
+      </c>
+      <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -16047,22 +16493,36 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="15"/>
+      <c r="V50" s="10">
+        <f t="shared" ref="V50:V55" si="42">F50</f>
+        <v>19.353000000000002</v>
+      </c>
+      <c r="W50" s="10">
+        <v>12.599</v>
+      </c>
+      <c r="X50" s="15">
+        <v>14.249000000000001</v>
+      </c>
+      <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="15"/>
+        <v>220</v>
+      </c>
+      <c r="C51" s="10">
+        <v>22.443999999999999</v>
+      </c>
+      <c r="D51" s="10">
+        <v>18.343</v>
+      </c>
+      <c r="E51" s="10">
+        <v>20.748000000000001</v>
+      </c>
+      <c r="F51" s="15">
+        <v>16.471</v>
+      </c>
+      <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -16073,22 +16533,36 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="15"/>
+      <c r="V51" s="10">
+        <f t="shared" si="42"/>
+        <v>16.471</v>
+      </c>
+      <c r="W51" s="10">
+        <v>23.225999999999999</v>
+      </c>
+      <c r="X51" s="15">
+        <v>20.338999999999999</v>
+      </c>
+      <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-    </row>
-    <row r="52" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="15"/>
+        <v>221</v>
+      </c>
+      <c r="C52" s="10">
+        <v>26.716000000000001</v>
+      </c>
+      <c r="D52" s="10">
+        <v>31.725000000000001</v>
+      </c>
+      <c r="E52" s="10">
+        <v>23.46</v>
+      </c>
+      <c r="F52" s="15">
+        <v>26.58</v>
+      </c>
+      <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -16099,22 +16573,30 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="15"/>
+      <c r="V52" s="10">
+        <f t="shared" si="42"/>
+        <v>26.58</v>
+      </c>
+      <c r="W52" s="10">
+        <v>13.81</v>
+      </c>
+      <c r="X52" s="15">
+        <v>21.36</v>
+      </c>
+      <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-    </row>
-    <row r="53" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="15"/>
+      <c r="E53" s="10">
+        <v>10.903</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -16125,111 +16607,72 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
+      <c r="V53" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="11">
-        <f>SUM(C47:C53)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="11">
-        <f>SUM(D47:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="11">
-        <f>SUM(E47:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <f>SUM(F47:F53)</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="14">
-        <f>SUM(G47:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="11">
-        <f t="shared" ref="L54:W54" si="90">SUM(L47:L53)</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="11">
-        <f t="shared" ref="V54:AA54" si="91">SUM(V47:V53)</f>
-        <v>0</v>
-      </c>
-      <c r="W54" s="11">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="11">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="14">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="11">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="11">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="10">
+        <v>81.935000000000002</v>
+      </c>
+      <c r="D54" s="10">
+        <v>98.691999999999993</v>
+      </c>
+      <c r="E54" s="10">
+        <v>117.468</v>
+      </c>
+      <c r="F54" s="15">
+        <v>118.723</v>
+      </c>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10">
+        <f t="shared" si="42"/>
+        <v>118.723</v>
+      </c>
+      <c r="W54" s="10">
+        <v>132.387</v>
+      </c>
+      <c r="X54" s="15">
+        <v>134.36099999999999</v>
+      </c>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="15"/>
+        <v>217</v>
+      </c>
+      <c r="C55" s="10">
+        <v>6.8440000000000003</v>
+      </c>
+      <c r="D55" s="10">
+        <v>9.0009999999999994</v>
+      </c>
+      <c r="E55" s="10">
+        <v>9.4079999999999995</v>
+      </c>
+      <c r="F55" s="15">
+        <v>10.436</v>
+      </c>
+      <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -16240,74 +16683,161 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="15"/>
+      <c r="V55" s="10">
+        <f t="shared" si="42"/>
+        <v>10.436</v>
+      </c>
+      <c r="W55" s="10">
+        <v>10.63</v>
+      </c>
+      <c r="X55" s="15">
+        <v>10.895</v>
+      </c>
+      <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="15"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="15"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="11">
+        <f>SUM(C50:C55)</f>
+        <v>145.82599999999999</v>
+      </c>
+      <c r="D56" s="11">
+        <f>SUM(D50:D55)</f>
+        <v>168.358</v>
+      </c>
+      <c r="E56" s="11">
+        <f>SUM(E50:E55)</f>
+        <v>192.042</v>
+      </c>
+      <c r="F56" s="14">
+        <f>SUM(F50:F55)</f>
+        <v>191.56300000000002</v>
+      </c>
+      <c r="K56" s="11">
+        <f>SUM(K50:K55)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <f>SUM(L50:L55)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <f>SUM(M50:M55)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="11">
+        <f>SUM(N50:N55)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <f>SUM(O50:O55)</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
+        <f>SUM(P50:P55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="11">
+        <f>SUM(Q50:Q55)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="11">
+        <f>SUM(R50:R55)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <f>SUM(S50:S55)</f>
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
+        <f>SUM(T50:T55)</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <f>SUM(U50:U55)</f>
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <f>SUM(V50:V55)</f>
+        <v>191.56300000000002</v>
+      </c>
+      <c r="W56" s="11">
+        <f>SUM(W50:W55)</f>
+        <v>192.65199999999999</v>
+      </c>
+      <c r="X56" s="14">
+        <f>SUM(X50:X55)</f>
+        <v>201.20400000000001</v>
+      </c>
+      <c r="Y56" s="11">
+        <f>SUM(Y50:Y55)</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="11">
+        <f>SUM(Z50:Z55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" s="144" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="144" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="145">
+        <v>557.46799999999996</v>
+      </c>
+      <c r="D57" s="145">
+        <v>551.59799999999996</v>
+      </c>
+      <c r="E57" s="145">
+        <v>657.78899999999999</v>
+      </c>
+      <c r="F57" s="146">
+        <v>490.464</v>
+      </c>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="145"/>
+      <c r="T57" s="145"/>
+      <c r="U57" s="145"/>
+      <c r="V57" s="145">
+        <f t="shared" ref="V57:V60" si="43">F57</f>
+        <v>490.464</v>
+      </c>
+      <c r="W57" s="145">
+        <v>490.96</v>
+      </c>
+      <c r="X57" s="146">
+        <v>491.45600000000002</v>
+      </c>
+      <c r="Y57" s="145"/>
+      <c r="Z57" s="145"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="15"/>
+        <v>218</v>
+      </c>
+      <c r="C58" s="10">
+        <v>29.202999999999999</v>
+      </c>
+      <c r="D58" s="10">
+        <v>29.167999999999999</v>
+      </c>
+      <c r="E58" s="10">
+        <v>21.690999999999999</v>
+      </c>
+      <c r="F58" s="15">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -16318,22 +16848,36 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="15"/>
+      <c r="V58" s="10">
+        <f t="shared" si="43"/>
+        <v>17.350000000000001</v>
+      </c>
+      <c r="W58" s="10">
+        <v>26.850999999999999</v>
+      </c>
+      <c r="X58" s="15">
+        <v>24.334</v>
+      </c>
+      <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="15"/>
+        <v>217</v>
+      </c>
+      <c r="C59" s="10">
+        <v>36.738999999999997</v>
+      </c>
+      <c r="D59" s="10">
+        <v>61.374000000000002</v>
+      </c>
+      <c r="E59" s="10">
+        <v>52.991</v>
+      </c>
+      <c r="F59" s="15">
+        <v>45.588000000000001</v>
+      </c>
+      <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -16344,405 +16888,246 @@
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="15"/>
+      <c r="V59" s="10">
+        <f t="shared" si="43"/>
+        <v>45.588000000000001</v>
+      </c>
+      <c r="W59" s="10">
+        <v>44.429000000000002</v>
+      </c>
+      <c r="X59" s="15">
+        <v>41.771000000000001</v>
+      </c>
+      <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-    </row>
-    <row r="60" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="11">
-        <f>SUM(C55:C59)</f>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="10">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="D60" s="10">
+        <v>4.2510000000000003</v>
+      </c>
+      <c r="E60" s="10">
+        <v>6.1890000000000001</v>
+      </c>
+      <c r="F60" s="15">
+        <v>7.9809999999999999</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10">
+        <f t="shared" si="43"/>
+        <v>7.9809999999999999</v>
+      </c>
+      <c r="W60" s="10">
+        <v>8.5239999999999991</v>
+      </c>
+      <c r="X60" s="15">
+        <v>9.5939999999999994</v>
+      </c>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="11">
+        <f>SUM(C56:C60)</f>
+        <v>773.33799999999997</v>
+      </c>
+      <c r="D61" s="11">
+        <f>SUM(D56:D60)</f>
+        <v>814.74899999999991</v>
+      </c>
+      <c r="E61" s="11">
+        <f>SUM(E56:E60)</f>
+        <v>930.702</v>
+      </c>
+      <c r="F61" s="14">
+        <f>SUM(F56:F60)</f>
+        <v>752.94600000000003</v>
+      </c>
+      <c r="K61" s="11">
+        <f>SUM(K56:K60)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="11">
-        <f>SUM(D55:D59)</f>
+      <c r="L61" s="11">
+        <f>SUM(L56:L60)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="11">
-        <f>SUM(E55:E59)</f>
+      <c r="M61" s="11">
+        <f>SUM(M56:M60)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="11">
-        <f>SUM(F55:F59)</f>
+      <c r="N61" s="11">
+        <f>SUM(N56:N60)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="14">
-        <f>SUM(G55:G59)</f>
+      <c r="O61" s="11">
+        <f>SUM(O56:O60)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="11">
-        <f t="shared" ref="L60:W60" si="92">SUM(L55:L59)</f>
+      <c r="P61" s="11">
+        <f>SUM(P56:P60)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="11">
-        <f t="shared" si="92"/>
+      <c r="Q61" s="11">
+        <f>SUM(Q56:Q60)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="11">
-        <f t="shared" si="92"/>
+      <c r="R61" s="11">
+        <f>SUM(R56:R60)</f>
         <v>0</v>
       </c>
-      <c r="O60" s="11">
-        <f t="shared" si="92"/>
+      <c r="S61" s="11">
+        <f>SUM(S56:S60)</f>
         <v>0</v>
       </c>
-      <c r="P60" s="11">
-        <f t="shared" si="92"/>
+      <c r="T61" s="11">
+        <f>SUM(T56:T60)</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="11">
-        <f t="shared" si="92"/>
+      <c r="U61" s="11">
+        <f>SUM(U56:U60)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="11">
-        <f t="shared" si="92"/>
+      <c r="V61" s="11">
+        <f>SUM(V56:V60)</f>
+        <v>752.94600000000003</v>
+      </c>
+      <c r="W61" s="11">
+        <f>SUM(W56:W60)</f>
+        <v>763.41599999999994</v>
+      </c>
+      <c r="X61" s="14">
+        <f>SUM(X56:X60)</f>
+        <v>768.35900000000004</v>
+      </c>
+      <c r="Y61" s="11">
+        <f>SUM(Y56:Y60)</f>
         <v>0</v>
       </c>
-      <c r="S60" s="11">
-        <f t="shared" si="92"/>
+      <c r="Z61" s="11">
+        <f>SUM(Z56:Z60)</f>
         <v>0</v>
       </c>
-      <c r="T60" s="11">
-        <f t="shared" si="92"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="10">
+        <f>C49-C61</f>
+        <v>643.36399999999981</v>
+      </c>
+      <c r="D62" s="10">
+        <f>D49-D61</f>
+        <v>570.29600000000016</v>
+      </c>
+      <c r="E62" s="10">
+        <f>E49-E61</f>
+        <v>419.02399999999989</v>
+      </c>
+      <c r="F62" s="15">
+        <f>F49-F61</f>
+        <v>448.47900000000016</v>
+      </c>
+      <c r="K62" s="10">
+        <f>K49-K61</f>
         <v>0</v>
       </c>
-      <c r="U60" s="11">
-        <f t="shared" si="92"/>
+      <c r="L62" s="10">
+        <f>L49-L61</f>
         <v>0</v>
       </c>
-      <c r="V60" s="11">
-        <f t="shared" ref="V60:AA60" si="93">SUM(V55:V59)</f>
+      <c r="M62" s="10">
+        <f>M49-M61</f>
         <v>0</v>
       </c>
-      <c r="W60" s="11">
-        <f t="shared" si="93"/>
+      <c r="N62" s="10">
+        <f>N49-N61</f>
         <v>0</v>
       </c>
-      <c r="X60" s="11">
-        <f t="shared" si="93"/>
+      <c r="O62" s="10">
+        <f>O49-O61</f>
         <v>0</v>
       </c>
-      <c r="Y60" s="14">
-        <f t="shared" si="93"/>
+      <c r="P62" s="10">
+        <f>P49-P61</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="11">
-        <f t="shared" si="93"/>
+      <c r="Q62" s="10">
+        <f>Q49-Q61</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="11">
-        <f t="shared" si="93"/>
+      <c r="R62" s="10">
+        <f>R49-R61</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="15"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="15"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="15"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="15"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="11">
-        <f>SUM(C60:C64)</f>
+      <c r="S62" s="10">
+        <f>S49-S61</f>
         <v>0</v>
       </c>
-      <c r="D65" s="11">
-        <f>SUM(D60:D64)</f>
+      <c r="T62" s="10">
+        <f>T49-T61</f>
         <v>0</v>
       </c>
-      <c r="E65" s="11">
-        <f>SUM(E60:E64)</f>
+      <c r="U62" s="10">
+        <f>U49-U61</f>
         <v>0</v>
       </c>
-      <c r="F65" s="11">
-        <f>SUM(F60:F64)</f>
+      <c r="V62" s="10">
+        <f>V49-V61</f>
+        <v>448.47900000000016</v>
+      </c>
+      <c r="W62" s="10">
+        <f>W49-W61</f>
+        <v>464.97100000000023</v>
+      </c>
+      <c r="X62" s="15">
+        <f>X49-X61</f>
+        <v>480.66500000000008</v>
+      </c>
+      <c r="Y62" s="10">
+        <f>Y49-Y61</f>
         <v>0</v>
       </c>
-      <c r="G65" s="14">
-        <f>SUM(G60:G64)</f>
+      <c r="Z62" s="10">
+        <f>Z49-Z61</f>
         <v>0</v>
       </c>
-      <c r="L65" s="11">
-        <f t="shared" ref="L65:W65" si="94">SUM(L60:L64)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="11">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="11">
-        <f t="shared" ref="V65:AA65" si="95">SUM(V60:V64)</f>
-        <v>0</v>
-      </c>
-      <c r="W65" s="11">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="11">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="14">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="11">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="11">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="10">
-        <f t="shared" ref="C66:E66" si="96">C54-C65</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="10">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="10">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="10">
-        <f>F54-F65</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="15">
-        <f>G54-G65</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="10">
-        <f t="shared" ref="L66:W66" si="97">L54-L65</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="R66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="10">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="10">
-        <f t="shared" ref="V66:AA66" si="98">V54-V65</f>
-        <v>0</v>
-      </c>
-      <c r="W66" s="10">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="10">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="15">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="10">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="10">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="57"/>
-      <c r="W68" s="151"/>
-      <c r="Y68" s="16"/>
-    </row>
-    <row r="86" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G86" s="41"/>
-      <c r="W86" s="152"/>
-      <c r="Y86" s="41"/>
-    </row>
-    <row r="87" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="16"/>
-      <c r="W87" s="151"/>
-      <c r="Y87" s="16"/>
+    </row>
+    <row r="64" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="X64" s="16"/>
+    </row>
+    <row r="82" spans="6:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="41"/>
+      <c r="X82" s="41"/>
+    </row>
+    <row r="83" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="16"/>
+      <c r="X83" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16751,9 +17136,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C60" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -16769,7 +17151,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -16817,26 +17199,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16846,7 +17228,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -16857,7 +17239,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -25152,60 +25534,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="138" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140"/>
+        <v>95</v>
+      </c>
+      <c r="H1" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>121</v>
+      <c r="H3" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -25213,27 +25595,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="74" t="e">
+      <c r="H4" s="68" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="75" t="e">
+      <c r="I4" s="69" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="70">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="76" t="e">
+      <c r="K4" s="70" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="77" t="e">
+      <c r="L4" s="71" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="78" t="e">
+      <c r="M4" s="72" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -25243,27 +25625,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="79" t="e">
+      <c r="H5" s="73" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="80" t="e">
+      <c r="I5" s="74" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="75">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="82" t="e">
+      <c r="K5" s="76" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="83" t="e">
+      <c r="L5" s="77" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="84" t="e">
+      <c r="M5" s="78" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -25273,27 +25655,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="79" t="e">
+      <c r="H6" s="73" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="80" t="e">
+      <c r="I6" s="74" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="75">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="82" t="e">
+      <c r="K6" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="83" t="e">
+      <c r="L6" s="77" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="84" t="e">
+      <c r="M6" s="78" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -25303,27 +25685,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="79" t="e">
+      <c r="H7" s="73" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="80" t="e">
+      <c r="I7" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="75">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="82" t="e">
+      <c r="K7" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="83" t="e">
+      <c r="L7" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="84" t="e">
+      <c r="M7" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25333,27 +25715,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="79" t="e">
+      <c r="H8" s="73" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="80" t="e">
+      <c r="I8" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="75">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="82" t="e">
+      <c r="K8" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="83" t="e">
+      <c r="L8" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="84" t="e">
+      <c r="M8" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25363,27 +25745,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="79" t="e">
+      <c r="H9" s="73" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="80" t="e">
+      <c r="I9" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="75">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="82" t="e">
+      <c r="K9" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="83" t="e">
+      <c r="L9" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="84" t="e">
+      <c r="M9" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25393,27 +25775,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="79" t="e">
+      <c r="H10" s="73" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="80" t="e">
+      <c r="I10" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="75">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="82" t="e">
+      <c r="K10" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="83" t="e">
+      <c r="L10" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="84" t="e">
+      <c r="M10" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25423,27 +25805,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="79" t="e">
+      <c r="H11" s="73" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="80" t="e">
+      <c r="I11" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="75">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="82" t="e">
+      <c r="K11" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="83" t="e">
+      <c r="L11" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="84" t="e">
+      <c r="M11" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25453,27 +25835,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="79" t="e">
+      <c r="H12" s="73" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="80" t="e">
+      <c r="I12" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="75">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="82" t="e">
+      <c r="K12" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="83" t="e">
+      <c r="L12" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="84" t="e">
+      <c r="M12" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25483,27 +25865,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="79" t="e">
+      <c r="H13" s="73" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="80" t="e">
+      <c r="I13" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="75">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="82" t="e">
+      <c r="K13" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="83" t="e">
+      <c r="L13" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="84" t="e">
+      <c r="M13" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25513,27 +25895,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="79" t="e">
+      <c r="H14" s="73" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="80" t="e">
+      <c r="I14" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="75">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="82" t="e">
+      <c r="K14" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="83" t="e">
+      <c r="L14" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="84" t="e">
+      <c r="M14" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25543,23 +25925,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="86">
+      <c r="H15" s="79"/>
+      <c r="I15" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="80">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="86" t="e">
+      <c r="K15" s="80" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="87" t="e">
+      <c r="L15" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="87" t="e">
+      <c r="M15" s="81" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25569,350 +25951,350 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="H16" s="82"/>
+      <c r="M16" s="83"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" s="142"/>
-      <c r="M17" s="89"/>
+      <c r="H17" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="138"/>
+      <c r="M17" s="83"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
-      <c r="M18" s="89"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
+      <c r="M18" s="83"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="127" t="e">
+      <c r="H19" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="121" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="89"/>
+      <c r="M19" s="83"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="127" t="e">
+      <c r="H20" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="121" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="89"/>
+      <c r="M20" s="83"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="127" t="e">
+      <c r="H21" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="121" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="89"/>
+      <c r="M21" s="83"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="127" t="e">
+      <c r="H22" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="121" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="89"/>
+      <c r="M22" s="83"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="127" t="e">
+      <c r="H23" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="121" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="89"/>
+      <c r="M23" s="83"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="127" t="e">
+      <c r="H24" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="121" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="89"/>
+      <c r="M24" s="83"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="128" t="e">
+      <c r="H25" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="122" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="89"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="128" t="e">
+      <c r="H26" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="122" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="89"/>
+      <c r="M26" s="83"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" s="127" t="e">
+      <c r="H27" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="121" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="89"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="127" t="e">
+      <c r="H28" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="121" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="89"/>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="127" t="e">
+      <c r="H29" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="121" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="89"/>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="128" t="e">
+      <c r="H30" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="122" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="89"/>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="68">
+      <c r="H31" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="62">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="89"/>
+      <c r="M31" s="83"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="93"/>
-      <c r="M32" s="89"/>
+      <c r="H32" s="87"/>
+      <c r="M32" s="83"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="M33" s="89"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" s="83"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="I34" s="83" t="e">
+      <c r="H34" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="77" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="81">
+      <c r="J34" s="75">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="83" t="e">
+      <c r="K34" s="77" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="84" t="e">
+      <c r="L34" s="78" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="89"/>
+      <c r="M34" s="83"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35" s="83" t="e">
+      <c r="H35" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="77" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="81">
+      <c r="J35" s="75">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="83" t="e">
+      <c r="K35" s="77" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="84" t="e">
+      <c r="L35" s="78" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="89"/>
+      <c r="M35" s="83"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" s="86">
+      <c r="H36" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="80">
         <v>0</v>
       </c>
-      <c r="J36" s="86">
+      <c r="J36" s="80">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="99" t="e">
+      <c r="K36" s="93" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="87" t="e">
+      <c r="L36" s="81" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="89"/>
+      <c r="M36" s="83"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="93"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="89"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="83"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="K38" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="L38" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="M38" s="96" t="s">
-        <v>146</v>
+      <c r="H38" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" s="90" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -25920,26 +26302,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="101">
+      <c r="H39" s="95">
         <v>1</v>
       </c>
-      <c r="I39" s="83" t="e">
+      <c r="I39" s="77" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="83" t="e">
+      <c r="J39" s="77" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="81">
+      <c r="K39" s="75">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="83" t="e">
+      <c r="L39" s="77" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="84">
+      <c r="M39" s="78">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -25948,26 +26330,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="101">
+      <c r="H40" s="95">
         <v>2</v>
       </c>
-      <c r="I40" s="83" t="e">
+      <c r="I40" s="77" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="83" t="e">
+      <c r="J40" s="77" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="81">
+      <c r="K40" s="75">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="83" t="e">
+      <c r="L40" s="77" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="84">
+      <c r="M40" s="78">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -25976,26 +26358,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="101">
+      <c r="H41" s="95">
         <v>3</v>
       </c>
-      <c r="I41" s="83" t="e">
+      <c r="I41" s="77" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="83" t="e">
+      <c r="J41" s="77" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="81">
+      <c r="K41" s="75">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="83" t="e">
+      <c r="L41" s="77" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="102">
+      <c r="M41" s="96">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -26004,46 +26386,46 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="79"/>
-      <c r="M42" s="102"/>
+      <c r="H42" s="73"/>
+      <c r="M42" s="96"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="145" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="147"/>
+      <c r="H43" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="143"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="103">
+      <c r="H44" s="97">
         <v>0.01</v>
       </c>
-      <c r="I44" s="104" t="e">
+      <c r="I44" s="98" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="105">
+      <c r="J44" s="99">
         <v>0.2</v>
       </c>
-      <c r="K44" s="104" t="e">
+      <c r="K44" s="98" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="105">
+      <c r="L44" s="99">
         <v>0.85</v>
       </c>
-      <c r="M44" s="106" t="e">
+      <c r="M44" s="100" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -26053,24 +26435,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="107">
+      <c r="H45" s="101">
         <v>0.02</v>
       </c>
-      <c r="I45" s="108" t="e">
+      <c r="I45" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="109">
+      <c r="J45" s="103">
         <v>0.25</v>
       </c>
-      <c r="K45" s="108" t="e">
+      <c r="K45" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="109">
+      <c r="L45" s="103">
         <v>0.86</v>
       </c>
-      <c r="M45" s="110" t="e">
+      <c r="M45" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26080,24 +26462,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="107">
+      <c r="H46" s="101">
         <v>0.03</v>
       </c>
-      <c r="I46" s="108" t="e">
+      <c r="I46" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="109">
+      <c r="J46" s="103">
         <v>0.3</v>
       </c>
-      <c r="K46" s="108" t="e">
+      <c r="K46" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="109">
+      <c r="L46" s="103">
         <v>0.87</v>
       </c>
-      <c r="M46" s="110" t="e">
+      <c r="M46" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26107,24 +26489,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="107">
+      <c r="H47" s="101">
         <v>0.04</v>
       </c>
-      <c r="I47" s="108" t="e">
+      <c r="I47" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="109">
+      <c r="J47" s="103">
         <v>0.35</v>
       </c>
-      <c r="K47" s="108" t="e">
+      <c r="K47" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="109">
+      <c r="L47" s="103">
         <v>0.88</v>
       </c>
-      <c r="M47" s="110" t="e">
+      <c r="M47" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26134,24 +26516,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="107">
+      <c r="H48" s="101">
         <v>0.05</v>
       </c>
-      <c r="I48" s="108" t="e">
+      <c r="I48" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="109">
+      <c r="J48" s="103">
         <v>0.4</v>
       </c>
-      <c r="K48" s="108" t="e">
+      <c r="K48" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="109">
+      <c r="L48" s="103">
         <v>0.89</v>
       </c>
-      <c r="M48" s="110" t="e">
+      <c r="M48" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26161,24 +26543,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="107">
+      <c r="H49" s="101">
         <v>0.06</v>
       </c>
-      <c r="I49" s="108" t="e">
+      <c r="I49" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="109">
+      <c r="J49" s="103">
         <v>0.45</v>
       </c>
-      <c r="K49" s="108" t="e">
+      <c r="K49" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="109">
+      <c r="L49" s="103">
         <v>0.9</v>
       </c>
-      <c r="M49" s="110" t="e">
+      <c r="M49" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26188,24 +26570,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="107">
+      <c r="H50" s="101">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="108" t="e">
+      <c r="I50" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="109">
+      <c r="J50" s="103">
         <v>0.5</v>
       </c>
-      <c r="K50" s="108" t="e">
+      <c r="K50" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="109">
+      <c r="L50" s="103">
         <v>0.91</v>
       </c>
-      <c r="M50" s="110" t="e">
+      <c r="M50" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26215,24 +26597,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="107">
+      <c r="H51" s="101">
         <v>0.08</v>
       </c>
-      <c r="I51" s="108" t="e">
+      <c r="I51" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="109">
+      <c r="J51" s="103">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="108" t="e">
+      <c r="K51" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="109">
+      <c r="L51" s="103">
         <v>0.92</v>
       </c>
-      <c r="M51" s="110" t="e">
+      <c r="M51" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26242,24 +26624,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="107">
+      <c r="H52" s="101">
         <v>0.09</v>
       </c>
-      <c r="I52" s="108" t="e">
+      <c r="I52" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="109">
+      <c r="J52" s="103">
         <v>0.6</v>
       </c>
-      <c r="K52" s="108" t="e">
+      <c r="K52" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="109">
+      <c r="L52" s="103">
         <v>0.93</v>
       </c>
-      <c r="M52" s="110" t="e">
+      <c r="M52" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26269,24 +26651,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="107">
+      <c r="H53" s="101">
         <v>0.1</v>
       </c>
-      <c r="I53" s="108" t="e">
+      <c r="I53" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="109">
+      <c r="J53" s="103">
         <v>0.65</v>
       </c>
-      <c r="K53" s="108" t="e">
+      <c r="K53" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="109">
+      <c r="L53" s="103">
         <v>0.94</v>
       </c>
-      <c r="M53" s="110" t="e">
+      <c r="M53" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26296,24 +26678,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="107">
+      <c r="H54" s="101">
         <v>0.11</v>
       </c>
-      <c r="I54" s="108" t="e">
+      <c r="I54" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="109">
+      <c r="J54" s="103">
         <v>0.7</v>
       </c>
-      <c r="K54" s="108" t="e">
+      <c r="K54" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="109">
+      <c r="L54" s="103">
         <v>0.95</v>
       </c>
-      <c r="M54" s="110" t="e">
+      <c r="M54" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26323,24 +26705,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="107">
+      <c r="H55" s="101">
         <v>0.12</v>
       </c>
-      <c r="I55" s="108" t="e">
+      <c r="I55" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="109">
+      <c r="J55" s="103">
         <v>0.75</v>
       </c>
-      <c r="K55" s="108" t="e">
+      <c r="K55" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="109">
+      <c r="L55" s="103">
         <v>0.96</v>
       </c>
-      <c r="M55" s="110" t="e">
+      <c r="M55" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26350,24 +26732,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="107">
+      <c r="H56" s="101">
         <v>0.13</v>
       </c>
-      <c r="I56" s="108" t="e">
+      <c r="I56" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="109">
+      <c r="J56" s="103">
         <v>0.8</v>
       </c>
-      <c r="K56" s="108" t="e">
+      <c r="K56" s="102" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="109">
+      <c r="L56" s="103">
         <v>0.97</v>
       </c>
-      <c r="M56" s="110" t="e">
+      <c r="M56" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26377,19 +26759,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="107">
+      <c r="H57" s="101">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="108" t="e">
+      <c r="I57" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="109"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="109">
+      <c r="J57" s="103"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="103">
         <v>0.98</v>
       </c>
-      <c r="M57" s="110" t="e">
+      <c r="M57" s="104" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26399,19 +26781,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="111">
+      <c r="H58" s="105">
         <v>0.15</v>
       </c>
-      <c r="I58" s="112" t="e">
+      <c r="I58" s="106" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="113"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="114">
+      <c r="J58" s="107"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="108">
         <v>0.99</v>
       </c>
-      <c r="M58" s="115" t="e">
+      <c r="M58" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26427,47 +26809,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="I60" s="117"/>
+      <c r="H60" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="111"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="118" t="s">
-        <v>149</v>
-      </c>
-      <c r="I61" s="119"/>
+      <c r="H61" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="113"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="120"/>
+      <c r="H62" s="114"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I63" s="121"/>
+      <c r="H63" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" s="115"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="122" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="123">
+      <c r="H64" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="117">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -26477,10 +26859,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="118" t="s">
-        <v>152</v>
-      </c>
-      <c r="I65" s="124">
+      <c r="H65" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" s="118">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>

--- a/Business - Technology Services/QTWO.xlsx
+++ b/Business - Technology Services/QTWO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C33A9-FAB6-4DF0-9AD5-57CB0154DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB05C0DB-0248-44DA-AE9D-2D6C90B9ECC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$20:$W$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$21:$W$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$4:$W$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$3:$W$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$4:$W$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$20:$W$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$21:$W$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$2:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="230">
   <si>
     <t>Price</t>
   </si>
@@ -1003,6 +1003,12 @@
   <si>
     <t>EPS Growth</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
 </sst>
 </file>
 
@@ -1121,7 +1127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,6 +1184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,7 +1756,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1896,6 +1908,9 @@
     <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1953,14 +1968,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2234,6 +2253,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>154.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.96700000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>165.50800000000001</c:v>
@@ -2750,6 +2772,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D049-49AC-9F50-0367BE87A0C6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2998,10 +3025,10 @@
                   <c:v>0.10421391864204232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10650567381336606</c:v>
+                  <c:v>0.11013986013985999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11635679664327592</c:v>
+                  <c:v>0.11352427100458606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,7 +3570,7 @@
                   <c:v>-23.18490000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-23.119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3693,7 +3720,7 @@
                   <c:v>0.47775527240488969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.47837926784412166</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4159,6 +4186,12 @@
                 <c:pt idx="3">
                   <c:v>-63.523000000000017</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.1456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.97999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4277,11 +4310,8 @@
                 <c:pt idx="3">
                   <c:v>0.78150047244294307</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6804716043458892</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.30113636363636376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4809,7 +4839,7 @@
                   <c:v>0.18572972413302186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.16857137326011343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4954,7 +4984,7 @@
                   <c:v>0.22064181296956595</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.22289906883400981</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -5102,7 +5132,7 @@
                   <c:v>0.17554406559201713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.18122568030612968</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6691,18 +6721,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6746,7 +6776,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6766,7 +6796,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6797,18 +6827,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6852,7 +6882,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6872,7 +6902,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13188,8 +13218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13242,7 +13272,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="20">
-        <v>45548</v>
+        <v>45663</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>141</v>
@@ -13266,7 +13296,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.91527777777777775</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>143</v>
@@ -13314,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>75.2</v>
+        <v>102.68</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>147</v>
@@ -13342,8 +13372,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!F19</f>
-        <v>58.353999999999999</v>
+        <f>Model!Y19</f>
+        <v>60.31</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>149</v>
@@ -13372,7 +13402,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>4388.2208000000001</v>
+        <v>6192.6308000000008</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>151</v>
@@ -13400,8 +13430,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!E23</f>
-        <v>-0.19767604251926479</v>
+        <f>Model!Y32+Model!Y34</f>
+        <v>407.85199999999998</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>153</v>
@@ -13429,8 +13459,8 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!E32+Model!E36</f>
-        <v>208.50899999999999</v>
+        <f>Model!Y53+Model!Y57+Model!Y60</f>
+        <v>502.21300000000002</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>155</v>
@@ -13457,7 +13487,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>-208.70667604251926</v>
+        <v>-94.361000000000047</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>157</v>
@@ -13484,7 +13514,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>4596.9274760425196</v>
+        <v>6286.9918000000007</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>159</v>
@@ -13508,9 +13538,9 @@
       <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="36" t="e">
-        <f>C6/Model!#REF!</f>
-        <v>#REF!</v>
+      <c r="C13" s="36">
+        <f>C6/Model!F20</f>
+        <v>-91.639984093967925</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13522,8 +13552,8 @@
         <v>45</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!F12</f>
-        <v>-0.87383943200436909</v>
+        <f>C6/Model!G21</f>
+        <v>58.340909090909093</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13539,18 +13569,17 @@
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="36" t="e">
-        <f>C6/Model!G12</f>
-        <v>#DIV/0!</v>
+      <c r="C15" s="36">
+        <f>C6/Model!H21</f>
+        <v>44.838427947598255</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6" t="e">
-        <f>Model!F12/Model!#REF!-1</f>
-        <v>#REF!</v>
+      <c r="C16" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -13558,77 +13587,74 @@
         <v>44</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!G12/Model!F12-1</f>
-        <v>-1</v>
+        <f>Model!H21/Model!G21-1</f>
+        <v>0.30113636363636376</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="125" t="s">
+      <c r="L17" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="130"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="50" t="e">
+      <c r="C18" s="50">
         <f>C14/(C16*100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+        <v>0.58340909090909099</v>
+      </c>
+      <c r="L18" s="131"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="133"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="50" t="e">
+      <c r="C19" s="50">
         <f>C15/(C17*100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="130"/>
+        <v>1.4889742110900548</v>
+      </c>
+      <c r="L19" s="131"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="133"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="6" t="e">
-        <f>Model!#REF!/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="130"/>
+      <c r="C20" s="6">
+        <f>Model!G4/Model!F3-1</f>
+        <v>0.11013986013985999</v>
+      </c>
+      <c r="L20" s="131"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="6" t="e">
-        <f>Model!#REF!/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="128"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="130"/>
+      <c r="C21" s="6">
+        <f>Model!H4/Model!G4-1</f>
+        <v>0.11352427100458606</v>
+      </c>
+      <c r="L21" s="131"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="15" t="e">
-        <f>Model!E6+Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="130"/>
+      <c r="C22" s="15"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13638,33 +13664,33 @@
         <f>Model!E6</f>
         <v>108.214</v>
       </c>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="130"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!E13</f>
-        <v>-1.3140000000000001</v>
-      </c>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="130"/>
+        <f>Model!Y22</f>
+        <v>0.50884750972740411</v>
+      </c>
+      <c r="L24" s="131"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="133"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!E14</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="130"/>
+        <f>Model!Y23</f>
+        <v>-7.090577702104342E-2</v>
+      </c>
+      <c r="L25" s="131"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13672,100 +13698,94 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>42.479970022756021</v>
-      </c>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
+        <v>58.097767386844595</v>
+      </c>
+      <c r="L26" s="131"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="133"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="119" t="e">
-        <f>Model!P36/Model!P43</f>
-        <v>#DIV/0!</v>
+      <c r="C27" s="119">
+        <f>C10/Model!Y62</f>
+        <v>1.0143319659797581</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="130"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="133"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="36" t="e">
-        <f>C22/-Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="131"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="133"/>
+      <c r="C28" s="36"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="136"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="36" t="e">
-        <f>Model!#REF!/Model!P35</f>
-        <v>#REF!</v>
+      <c r="C29" s="36">
+        <f>Model!Y40/Model!Y56</f>
+        <v>2.4968169484450016</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="36" t="e">
-        <f>(Model!P23+Model!P24)/Model!P35</f>
-        <v>#DIV/0!</v>
+      <c r="C30" s="36">
+        <f>C9/Model!Y56</f>
+        <v>1.9347450712510201</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="6" t="e">
-        <f>(Model!#REF!-Model!P35)/Model!P31</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!P31-Model!P42)/Main!C7</f>
-        <v>0</v>
+        <f>(Model!Y49-Model!Y61)/Main!C7</f>
+        <v>8.2095340739512555</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="36" t="e">
-        <f>Model!#REF!/Model!P31</f>
-        <v>#REF!</v>
+      <c r="C33" s="36">
+        <f>Model!F3/Model!Y40</f>
+        <v>1.1867332650630107</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="38" t="e">
-        <f>Model!P8/Model!P31</f>
-        <v>#DIV/0!</v>
+      <c r="C34" s="38">
+        <f>Model!G18/Model!Y49</f>
+        <v>8.3394366031198555E-2</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="38" t="e">
-        <f>Model!P8/Model!P43</f>
-        <v>#DIV/0!</v>
+      <c r="C35" s="38">
+        <f>Model!G18/Model!Y62</f>
+        <v>0.21438488276508372</v>
       </c>
       <c r="E35" t="s">
         <v>192</v>
@@ -13879,13 +13899,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13893,15 +13913,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="24" max="24" width="11.42578125" style="13"/>
+    <col min="24" max="24" width="11.42578125" style="147"/>
+    <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>18</v>
       </c>
@@ -13959,17 +13980,23 @@
       <c r="W2" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="13" t="s">
         <v>139</v>
       </c>
       <c r="Z2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14001,18 +14028,22 @@
       <c r="T3" s="11">
         <v>154.53100000000001</v>
       </c>
-      <c r="U3" s="11"/>
+      <c r="U3" s="11">
+        <v>154.96700000000001</v>
+      </c>
       <c r="V3" s="11"/>
       <c r="W3" s="11">
         <v>165.50800000000001</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="148">
         <v>172.89</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="14">
+        <v>175.02099999999999</v>
+      </c>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>65</v>
       </c>
@@ -14021,10 +14052,10 @@
       <c r="E4" s="10"/>
       <c r="F4" s="15"/>
       <c r="G4" s="42">
-        <v>691.15</v>
+        <v>693.42</v>
       </c>
       <c r="H4" s="42">
-        <v>771.57</v>
+        <v>772.14</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -14039,15 +14070,16 @@
       <c r="U4" s="40"/>
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="40">
-        <v>95.6</v>
-      </c>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="123"/>
       <c r="Z4" s="40">
-        <v>106.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179.95</v>
+      </c>
+      <c r="AA4">
+        <v>184.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
@@ -14079,18 +14111,22 @@
       <c r="T5" s="11">
         <v>80.703000000000003</v>
       </c>
-      <c r="U5" s="11"/>
+      <c r="U5" s="11">
+        <v>80.834000000000003</v>
+      </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11">
         <v>83.256</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="148">
         <v>86.063000000000002</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="14">
+        <v>85.962000000000003</v>
+      </c>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -14122,18 +14158,22 @@
       <c r="T6" s="10">
         <v>28.701000000000001</v>
       </c>
-      <c r="U6" s="10"/>
+      <c r="U6" s="10">
+        <v>26.123000000000001</v>
+      </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10">
         <v>25.445</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="150">
         <v>27.733000000000001</v>
       </c>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="15">
+        <v>25.558</v>
+      </c>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>74</v>
       </c>
@@ -14165,18 +14205,22 @@
       <c r="T7" s="10">
         <v>34.095999999999997</v>
       </c>
-      <c r="U7" s="10"/>
+      <c r="U7" s="10">
+        <v>34.542000000000002</v>
+      </c>
       <c r="V7" s="10"/>
       <c r="W7" s="10">
         <v>34.862000000000002</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="150">
         <v>35.759</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="15">
+        <v>36.901000000000003</v>
+      </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>137</v>
       </c>
@@ -14208,18 +14252,22 @@
       <c r="T8" s="10">
         <v>27.126999999999999</v>
       </c>
-      <c r="U8" s="10"/>
+      <c r="U8" s="10">
+        <v>28.084</v>
+      </c>
       <c r="V8" s="10"/>
       <c r="W8" s="10">
         <v>30.175999999999998</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="150">
         <v>31.283000000000001</v>
       </c>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="15">
+        <v>31.495000000000001</v>
+      </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>222</v>
       </c>
@@ -14251,14 +14299,18 @@
       <c r="T9" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U9" s="10"/>
+      <c r="U9" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="10"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="15">
+        <v>0</v>
+      </c>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>223</v>
       </c>
@@ -14290,18 +14342,22 @@
       <c r="T10" s="10">
         <v>5.2519999999999998</v>
       </c>
-      <c r="U10" s="10"/>
+      <c r="U10" s="10">
+        <v>5.25</v>
+      </c>
       <c r="V10" s="10"/>
       <c r="W10" s="10">
         <v>4.8280000000000003</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="150">
         <v>4.7880000000000003</v>
       </c>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="15">
+        <v>4.7759999999999998</v>
+      </c>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>224</v>
       </c>
@@ -14334,113 +14390,117 @@
       <c r="T11" s="10">
         <v>2.3119999999999998</v>
       </c>
-      <c r="U11" s="10"/>
+      <c r="U11" s="10">
+        <v>3.3029999999999999</v>
+      </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10">
         <v>1.1259999999999999</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="150">
         <v>0.96699999999999997</v>
       </c>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="15">
+        <v>3.129</v>
+      </c>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="11">
-        <f>C3-SUM(C5:C11)</f>
+        <f t="shared" ref="C12:H12" si="0">C3-SUM(C5:C11)</f>
         <v>-99.276999999999987</v>
       </c>
       <c r="D12" s="11">
-        <f>D3-SUM(D5:D11)</f>
+        <f t="shared" si="0"/>
         <v>-77.995000000000005</v>
       </c>
       <c r="E12" s="11">
-        <f>E3-SUM(E5:E11)</f>
+        <f t="shared" si="0"/>
         <v>-104.76100000000008</v>
       </c>
       <c r="F12" s="14">
-        <f>F3-SUM(F5:F11)</f>
+        <f t="shared" si="0"/>
         <v>-86.057000000000016</v>
       </c>
       <c r="G12" s="11">
-        <f>G3-SUM(G5:G11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="11">
-        <f>H3-SUM(H5:H11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11">
-        <f>K3-SUM(K5:K11)</f>
+        <f t="shared" ref="K12:Z12" si="1">K3-SUM(K5:K11)</f>
         <v>0</v>
       </c>
       <c r="L12" s="11">
-        <f>L3-SUM(L5:L11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <f>M3-SUM(M5:M11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <f>N3-SUM(N5:N11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O12" s="11">
-        <f>O3-SUM(O5:O11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P12" s="11">
-        <f>P3-SUM(P5:P11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q12" s="11">
-        <f>Q3-SUM(Q5:Q11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="11">
-        <f>R3-SUM(R5:R11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S12" s="11">
-        <f>S3-SUM(S5:S11)</f>
+        <f t="shared" si="1"/>
         <v>-21.158200000000022</v>
       </c>
       <c r="T12" s="11">
-        <f>T3-SUM(T5:T11)</f>
+        <f t="shared" si="1"/>
         <v>-23.669000000000011</v>
       </c>
       <c r="U12" s="11">
-        <f>U3-SUM(U5:U11)</f>
+        <f t="shared" si="1"/>
+        <v>-23.171999999999997</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="11">
-        <f>V3-SUM(V5:V11)</f>
+      <c r="W12" s="11">
+        <f t="shared" si="1"/>
+        <v>-14.184999999999974</v>
+      </c>
+      <c r="X12" s="148">
+        <f t="shared" si="1"/>
+        <v>-13.70300000000006</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>-12.80000000000004</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W12" s="11">
-        <f>W3-SUM(W5:W11)</f>
-        <v>-14.184999999999974</v>
-      </c>
-      <c r="X12" s="14">
-        <f>X3-SUM(X5:X11)</f>
-        <v>-13.70300000000006</v>
-      </c>
-      <c r="Y12" s="11">
-        <f>Y3-SUM(Y5:Y11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="11">
-        <f>Z3-SUM(Z5:Z11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -14478,20 +14538,25 @@
         <f>2.107-1.581</f>
         <v>0.52600000000000025</v>
       </c>
-      <c r="U13" s="10"/>
+      <c r="U13" s="10">
+        <v>2.3279999999999998</v>
+      </c>
       <c r="V13" s="10"/>
       <c r="W13" s="10">
         <f>3.189-1.292</f>
         <v>1.897</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="150">
         <f>3.852-1.12</f>
         <v>2.7319999999999998</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="15">
+        <f>4.617-1.354</f>
+        <v>3.2629999999999999</v>
+      </c>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>225</v>
       </c>
@@ -14519,107 +14584,109 @@
         <v>19.869</v>
       </c>
       <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+      <c r="U14" s="10">
+        <v>-1.3169999999999999</v>
+      </c>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="10"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="15"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="11">
-        <f>C12+SUM(C13:C14)</f>
+        <f t="shared" ref="C15:H15" si="2">C12+SUM(C13:C14)</f>
         <v>-135.648</v>
       </c>
       <c r="D15" s="11">
-        <f>D12+SUM(D13:D14)</f>
+        <f t="shared" si="2"/>
         <v>-111.10300000000001</v>
       </c>
       <c r="E15" s="11">
-        <f>E12+SUM(E13:E14)</f>
+        <f t="shared" si="2"/>
         <v>-106.07500000000007</v>
       </c>
       <c r="F15" s="14">
-        <f>F12+SUM(F13:F14)</f>
+        <f t="shared" si="2"/>
         <v>-61.822000000000017</v>
       </c>
       <c r="G15" s="11">
-        <f>G12+SUM(G13:G14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="11">
-        <f>H12+SUM(H13:H14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="11">
-        <f>K12+SUM(K13:K14)</f>
+        <f t="shared" ref="K15:Z15" si="3">K12+SUM(K13:K14)</f>
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <f>L12+SUM(L13:L14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <f>M12+SUM(M13:M14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="11">
-        <f>N12+SUM(N13:N14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="11">
-        <f>O12+SUM(O13:O14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="11">
-        <f>P12+SUM(P13:P14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="11">
-        <f>Q12+SUM(Q13:Q14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" s="11">
-        <f>R12+SUM(R13:R14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15" s="11">
-        <f>S12+SUM(S13:S14)</f>
+        <f t="shared" si="3"/>
         <v>-0.45720000000002159</v>
       </c>
       <c r="T15" s="11">
-        <f>T12+SUM(T13:T14)</f>
+        <f t="shared" si="3"/>
         <v>-23.143000000000011</v>
       </c>
       <c r="U15" s="11">
-        <f>U12+SUM(U13:U14)</f>
+        <f t="shared" si="3"/>
+        <v>-22.160999999999998</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="11">
-        <f>V12+SUM(V13:V14)</f>
+      <c r="W15" s="11">
+        <f t="shared" si="3"/>
+        <v>-12.287999999999974</v>
+      </c>
+      <c r="X15" s="148">
+        <f t="shared" si="3"/>
+        <v>-10.97100000000006</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="3"/>
+        <v>-9.5370000000000399</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W15" s="11">
-        <f>W12+SUM(W13:W14)</f>
-        <v>-12.287999999999974</v>
-      </c>
-      <c r="X15" s="14">
-        <f>X12+SUM(X13:X14)</f>
-        <v>-10.97100000000006</v>
-      </c>
-      <c r="Y15" s="11">
-        <f>Y12+SUM(Y13:Y14)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="11">
-        <f>Z12+SUM(Z13:Z14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -14652,18 +14719,22 @@
       <c r="T16" s="10">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="U16" s="10"/>
+      <c r="U16" s="10">
+        <v>1.006</v>
+      </c>
       <c r="V16" s="10"/>
       <c r="W16" s="10">
         <v>1.5549999999999999</v>
       </c>
-      <c r="X16" s="15">
+      <c r="X16" s="150">
         <v>2.089</v>
       </c>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="15">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>226</v>
       </c>
@@ -14701,107 +14772,119 @@
         <f>0.174-0.18</f>
         <v>-6.0000000000000053E-3</v>
       </c>
-      <c r="U17" s="10"/>
+      <c r="U17" s="10">
+        <f>0.423-0.47</f>
+        <v>-4.6999999999999986E-2</v>
+      </c>
       <c r="V17" s="10"/>
       <c r="W17" s="10">
         <f>-0.126+0.321</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="150">
         <f>-0.051-0.049</f>
         <v>-0.1</v>
       </c>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="15">
+        <f>0.383+0.23</f>
+        <v>0.61299999999999999</v>
+      </c>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18:F18" si="0">C15-SUM(C16:C17)</f>
+        <f t="shared" ref="C18:F18" si="4">C15-SUM(C16:C17)</f>
         <v>-137.10999999999999</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-112.849</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-111.82000000000008</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-63.523000000000017</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="G18" s="56">
+        <f>G21*G19</f>
+        <v>106.1456</v>
+      </c>
+      <c r="H18" s="56">
+        <f>H21*H19</f>
+        <v>141.97999999999999</v>
+      </c>
       <c r="K18" s="11">
-        <f t="shared" ref="K18" si="1">K15-SUM(K16:K17)</f>
+        <f t="shared" ref="K18" si="5">K15-SUM(K16:K17)</f>
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" ref="L18" si="2">L15-SUM(L16:L17)</f>
+        <f t="shared" ref="L18" si="6">L15-SUM(L16:L17)</f>
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" ref="M18" si="3">M15-SUM(M16:M17)</f>
+        <f t="shared" ref="M18" si="7">M15-SUM(M16:M17)</f>
         <v>0</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" ref="N18" si="4">N15-SUM(N16:N17)</f>
+        <f t="shared" ref="N18" si="8">N15-SUM(N16:N17)</f>
         <v>0</v>
       </c>
       <c r="O18" s="11">
-        <f t="shared" ref="O18" si="5">O15-SUM(O16:O17)</f>
+        <f t="shared" ref="O18" si="9">O15-SUM(O16:O17)</f>
         <v>0</v>
       </c>
       <c r="P18" s="11">
-        <f t="shared" ref="P18" si="6">P15-SUM(P16:P17)</f>
+        <f t="shared" ref="P18" si="10">P15-SUM(P16:P17)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" ref="Q18" si="7">Q15-SUM(Q16:Q17)</f>
+        <f t="shared" ref="Q18" si="11">Q15-SUM(Q16:Q17)</f>
         <v>0</v>
       </c>
       <c r="R18" s="11">
-        <f t="shared" ref="R18" si="8">R15-SUM(R16:R17)</f>
+        <f t="shared" ref="R18" si="12">R15-SUM(R16:R17)</f>
         <v>0</v>
       </c>
       <c r="S18" s="11">
-        <f t="shared" ref="S18:Z18" si="9">S15-SUM(S16:S17)</f>
+        <f t="shared" ref="S18:Z18" si="13">S15-SUM(S16:S17)</f>
         <v>4.5799999999978525E-2</v>
       </c>
       <c r="T18" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-23.18490000000001</v>
       </c>
       <c r="U18" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
+        <v>-23.119999999999997</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V18" s="11">
-        <f t="shared" si="9"/>
+      <c r="W18" s="11">
+        <f t="shared" si="13"/>
+        <v>-14.037999999999974</v>
+      </c>
+      <c r="X18" s="148">
+        <f t="shared" si="13"/>
+        <v>-12.960000000000061</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="13"/>
+        <v>-12.410000000000039</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W18" s="11">
-        <f t="shared" si="9"/>
-        <v>-14.037999999999974</v>
-      </c>
-      <c r="X18" s="14">
-        <f t="shared" si="9"/>
-        <v>-12.960000000000061</v>
-      </c>
-      <c r="Y18" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -14817,8 +14900,13 @@
       <c r="F19" s="15">
         <v>58.353999999999999</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="G19" s="40">
+        <f>Main!C7</f>
+        <v>60.31</v>
+      </c>
+      <c r="H19" s="40">
+        <v>62</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -14833,31 +14921,35 @@
       <c r="T19" s="10">
         <v>58.286000000000001</v>
       </c>
-      <c r="U19" s="10"/>
+      <c r="U19" s="10">
+        <v>58.491999999999997</v>
+      </c>
       <c r="V19" s="10"/>
       <c r="W19" s="10">
         <v>59.445999999999998</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="150">
         <v>60.161999999999999</v>
       </c>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="15">
+        <v>60.31</v>
+      </c>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="148">
-        <f t="shared" ref="C20:E20" si="10">(C18+C17)/C19</f>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:E20" si="14">(C18+C17)/C19</f>
         <v>-2.6348834079855439</v>
       </c>
-      <c r="D20" s="148">
-        <f t="shared" si="10"/>
+      <c r="D20" s="2">
+        <f t="shared" si="14"/>
         <v>-1.9992552399191406</v>
       </c>
-      <c r="E20" s="148">
-        <f t="shared" si="10"/>
+      <c r="E20" s="2">
+        <f t="shared" si="14"/>
         <v>-1.9019720767888322</v>
       </c>
       <c r="F20" s="53">
@@ -14866,72 +14958,72 @@
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="55"/>
-      <c r="K20" s="148" t="e">
-        <f t="shared" ref="K20" si="11">(K18+K17)/K19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="148" t="e">
-        <f t="shared" ref="L20" si="12">(L18+L17)/L19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="148" t="e">
-        <f t="shared" ref="M20" si="13">(M18+M17)/M19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="148" t="e">
-        <f t="shared" ref="N20" si="14">(N18+N17)/N19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="148" t="e">
-        <f t="shared" ref="O20" si="15">(O18+O17)/O19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="148" t="e">
-        <f t="shared" ref="P20" si="16">(P18+P17)/P19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="148" t="e">
-        <f t="shared" ref="Q20" si="17">(Q18+Q17)/Q19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="148" t="e">
-        <f t="shared" ref="R20" si="18">(R18+R17)/R19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="148">
-        <f t="shared" ref="S20" si="19">(S18+S17)/S19</f>
+      <c r="K20" s="2" t="e">
+        <f t="shared" ref="K20" si="15">(K18+K17)/K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="2" t="e">
+        <f t="shared" ref="L20" si="16">(L18+L17)/L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="2" t="e">
+        <f t="shared" ref="M20" si="17">(M18+M17)/M19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="2" t="e">
+        <f t="shared" ref="N20" si="18">(N18+N17)/N19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="2" t="e">
+        <f t="shared" ref="O20" si="19">(O18+O17)/O19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="2" t="e">
+        <f t="shared" ref="P20" si="20">(P18+P17)/P19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="2" t="e">
+        <f t="shared" ref="Q20" si="21">(Q18+Q17)/Q19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="2" t="e">
+        <f t="shared" ref="R20" si="22">(R18+R17)/R19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" ref="S20" si="23">(S18+S17)/S19</f>
         <v>-1.6812645763151449E-2</v>
       </c>
-      <c r="T20" s="148">
-        <f t="shared" ref="T20" si="20">(T18+T17)/T19</f>
+      <c r="T20" s="2">
+        <f t="shared" ref="T20" si="24">(T18+T17)/T19</f>
         <v>-0.3978811378375598</v>
       </c>
-      <c r="U20" s="148" t="e">
-        <f t="shared" ref="U20" si="21">(U18+U17)/U19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="148" t="e">
-        <f t="shared" ref="V20" si="22">(V18+V17)/V19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" s="148">
-        <f t="shared" ref="W20" si="23">(W18+W17)/W19</f>
+      <c r="U20" s="2">
+        <f t="shared" ref="U20" si="25">(U18+U17)/U19</f>
+        <v>-0.39607125760787798</v>
+      </c>
+      <c r="V20" s="2" t="e">
+        <f t="shared" ref="V20" si="26">(V18+V17)/V19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" ref="W20" si="27">(W18+W17)/W19</f>
         <v>-0.23286680348551583</v>
       </c>
-      <c r="X20" s="147">
-        <f t="shared" ref="X20" si="24">(X18+X17)/X19</f>
+      <c r="X20" s="151">
+        <f t="shared" ref="X20" si="28">(X18+X17)/X19</f>
         <v>-0.21708054918387124</v>
       </c>
-      <c r="Y20" s="148" t="e">
-        <f t="shared" ref="Y20" si="25">(Y18+Y17)/Y19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z20" s="148" t="e">
-        <f t="shared" ref="Z20" si="26">(Z18+Z17)/Z19</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="35">
+        <f t="shared" ref="Y20" si="29">(Y18+Y17)/Y19</f>
+        <v>-0.19560603548333674</v>
+      </c>
+      <c r="Z20" s="2" t="e">
+        <f t="shared" ref="Z20" si="30">(Z18+Z17)/Z19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>64</v>
       </c>
@@ -14940,10 +15032,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="35"/>
       <c r="G21" s="44">
-        <v>0.56000000000000005</v>
+        <v>1.76</v>
       </c>
       <c r="H21" s="45">
-        <v>0.81</v>
+        <v>2.29</v>
       </c>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
@@ -14958,15 +15050,18 @@
       <c r="U21" s="49"/>
       <c r="V21" s="49"/>
       <c r="W21" s="49"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="49">
+      <c r="X21" s="152"/>
+      <c r="Y21" s="124">
         <v>0.16</v>
       </c>
       <c r="Z21" s="49">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.53</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -14989,71 +15084,71 @@
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="K22" s="3" t="e">
-        <f>1-K5/K3</f>
+        <f t="shared" ref="K22:Z22" si="31">1-K5/K3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="3" t="e">
-        <f>1-L5/L3</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="3" t="e">
-        <f>1-M5/M3</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="3" t="e">
-        <f>1-N5/N3</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="3" t="e">
-        <f>1-O5/O3</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="3" t="e">
-        <f>1-P5/P3</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="3" t="e">
-        <f>1-Q5/Q3</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" s="3" t="e">
-        <f>1-R5/R3</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S22" s="3">
-        <f>1-S5/S3</f>
+        <f t="shared" si="31"/>
         <v>0.47904031161769323</v>
       </c>
       <c r="T22" s="3">
-        <f>1-T5/T3</f>
+        <f t="shared" si="31"/>
         <v>0.47775527240488969</v>
       </c>
-      <c r="U22" s="3" t="e">
-        <f>1-U5/U3</f>
-        <v>#DIV/0!</v>
+      <c r="U22" s="3">
+        <f t="shared" si="31"/>
+        <v>0.47837926784412166</v>
       </c>
       <c r="V22" s="3" t="e">
-        <f>1-V5/V3</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W22" s="3">
-        <f>1-W5/W3</f>
+        <f t="shared" si="31"/>
         <v>0.49696691398603088</v>
       </c>
-      <c r="X22" s="6">
-        <f>1-X5/X3</f>
+      <c r="X22" s="39">
+        <f t="shared" si="31"/>
         <v>0.50220949736826881</v>
       </c>
-      <c r="Y22" s="3" t="e">
-        <f>1-Y5/Y3</f>
-        <v>#DIV/0!</v>
+      <c r="Y22" s="6">
+        <f t="shared" si="31"/>
+        <v>0.50884750972740411</v>
       </c>
       <c r="Z22" s="3" t="e">
-        <f>1-Z5/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -15075,78 +15170,78 @@
       </c>
       <c r="G23" s="47">
         <f>G18/G4</f>
-        <v>0</v>
+        <v>0.15307548094949672</v>
       </c>
       <c r="H23" s="47">
         <f>H18/H4</f>
-        <v>0</v>
+        <v>0.18387857124355686</v>
       </c>
       <c r="K23" s="4" t="e">
-        <f>K18/K3</f>
+        <f t="shared" ref="K23:Z23" si="32">K18/K3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="4" t="e">
-        <f>L18/L3</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="4" t="e">
-        <f>M18/M3</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="4" t="e">
-        <f>N18/N3</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="4" t="e">
-        <f>O18/O3</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="4" t="e">
-        <f>P18/P3</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="4" t="e">
-        <f>Q18/Q3</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="4" t="e">
-        <f>R18/R3</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="4">
-        <f>S18/S3</f>
+        <f t="shared" si="32"/>
         <v>2.9933075394736563E-4</v>
       </c>
       <c r="T23" s="4">
-        <f>T18/T3</f>
+        <f t="shared" si="32"/>
         <v>-0.15003397376578168</v>
       </c>
-      <c r="U23" s="4" t="e">
-        <f>U18/U3</f>
-        <v>#DIV/0!</v>
+      <c r="U23" s="4">
+        <f t="shared" si="32"/>
+        <v>-0.14919305400504621</v>
       </c>
       <c r="V23" s="4" t="e">
-        <f>V18/V3</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="4">
-        <f>W18/W3</f>
+        <f t="shared" si="32"/>
         <v>-8.481765231892098E-2</v>
       </c>
-      <c r="X23" s="7">
-        <f>X18/X3</f>
+      <c r="X23" s="153">
+        <f t="shared" si="32"/>
         <v>-7.4960957834461578E-2</v>
       </c>
-      <c r="Y23" s="4" t="e">
-        <f>Y18/Y3</f>
-        <v>#DIV/0!</v>
+      <c r="Y23" s="7">
+        <f t="shared" si="32"/>
+        <v>-7.090577702104342E-2</v>
       </c>
       <c r="Z23" s="4" t="e">
-        <f>Z18/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -15165,66 +15260,66 @@
       </c>
       <c r="G24" s="48">
         <f>G4/F3-1</f>
-        <v>0.10650567381336606</v>
+        <v>0.11013986013985999</v>
       </c>
       <c r="H24" s="48">
         <f>H4/G4-1</f>
-        <v>0.11635679664327592</v>
+        <v>0.11352427100458606</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="e">
-        <f>O3/K3-1</f>
+        <f t="shared" ref="O24:Z24" si="33">O3/K3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="4" t="e">
-        <f>P3/L3-1</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="4" t="e">
-        <f>Q3/M3-1</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="4" t="e">
-        <f>R3/N3-1</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="4" t="e">
-        <f>S3/O3-1</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="4" t="e">
-        <f>T3/P3-1</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="4" t="e">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24" s="4" t="e">
-        <f>V3/R3-1</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W24" s="4">
-        <f>W3/S3-1</f>
+        <f t="shared" si="33"/>
         <v>8.1695074767332398E-2</v>
       </c>
-      <c r="X24" s="7">
-        <f>X3/T3-1</f>
+      <c r="X24" s="153">
+        <f t="shared" si="33"/>
         <v>0.11880464113996525</v>
       </c>
-      <c r="Y24" s="4" t="e">
-        <f>Y3/U3-1</f>
-        <v>#DIV/0!</v>
+      <c r="Y24" s="7">
+        <f t="shared" si="33"/>
+        <v>0.12940819658378855</v>
       </c>
       <c r="Z24" s="4" t="e">
-        <f>Z3/V3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>66</v>
       </c>
@@ -15251,67 +15346,67 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="4" t="e">
-        <f t="shared" ref="L25:Z25" si="27">L6/L3</f>
+        <f t="shared" ref="L25:Z25" si="34">L6/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.18374202656070271</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.18572972413302186</v>
       </c>
-      <c r="U25" s="4" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="U25" s="4">
+        <f t="shared" si="34"/>
+        <v>0.16857137326011343</v>
       </c>
       <c r="V25" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.15373879208255795</v>
       </c>
-      <c r="X25" s="7">
-        <f t="shared" si="27"/>
+      <c r="X25" s="153">
+        <f t="shared" si="34"/>
         <v>0.16040835213141305</v>
       </c>
-      <c r="Y25" s="4" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="Y25" s="7">
+        <f t="shared" si="34"/>
+        <v>0.14602819090280597</v>
       </c>
       <c r="Z25" s="4" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -15338,67 +15433,67 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="4" t="e">
-        <f t="shared" ref="L26:Z26" si="28">L7/L3</f>
+        <f t="shared" ref="L26:Z26" si="35">L7/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.22498823590923347</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.22064181296956595</v>
       </c>
-      <c r="U26" s="4" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+      <c r="U26" s="4">
+        <f t="shared" si="35"/>
+        <v>0.22289906883400981</v>
       </c>
       <c r="V26" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.21063634386253233</v>
       </c>
-      <c r="X26" s="7">
-        <f t="shared" si="28"/>
+      <c r="X26" s="153">
+        <f t="shared" si="35"/>
         <v>0.20683093296315577</v>
       </c>
-      <c r="Y26" s="4" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+      <c r="Y26" s="7">
+        <f t="shared" si="35"/>
+        <v>0.21083755663606085</v>
       </c>
       <c r="Z26" s="4" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>136</v>
       </c>
@@ -15425,154 +15520,151 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="4" t="e">
-        <f t="shared" ref="L27:Z27" si="29">L8/L3</f>
+        <f t="shared" ref="L27:Z27" si="36">L8/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.16137718289239777</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.17554406559201713</v>
       </c>
-      <c r="U27" s="4" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+      <c r="U27" s="4">
+        <f t="shared" si="36"/>
+        <v>0.18122568030612968</v>
       </c>
       <c r="V27" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.18232351306281266</v>
       </c>
-      <c r="X27" s="7">
-        <f t="shared" si="29"/>
+      <c r="X27" s="153">
+        <f t="shared" si="36"/>
         <v>0.18094163919255019</v>
       </c>
-      <c r="Y27" s="4" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+      <c r="Y27" s="7">
+        <f t="shared" si="36"/>
+        <v>0.17994983459127764</v>
       </c>
       <c r="Z27" s="4" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>227</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="149">
+      <c r="D28" s="125">
         <f>D20-C20</f>
         <v>0.63562816806640332</v>
       </c>
-      <c r="E28" s="149">
+      <c r="E28" s="125">
         <f>E20-D20</f>
         <v>9.7283163130308381E-2</v>
       </c>
-      <c r="F28" s="150">
+      <c r="F28" s="126">
         <f>F20-E20</f>
         <v>0.78150047244294307</v>
       </c>
-      <c r="G28" s="151">
-        <f>G21-F20</f>
-        <v>1.6804716043458892</v>
-      </c>
-      <c r="H28" s="151">
-        <f>H21-G21</f>
-        <v>0.25</v>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39">
+        <f>H21/G21-1</f>
+        <v>0.30113636363636376</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="149" t="e">
-        <f t="shared" ref="O28:Z28" si="30">O20-N20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="149">
-        <f t="shared" si="30"/>
+      <c r="O28" s="125" t="e">
+        <f t="shared" ref="O28:Z28" si="37">O20-N20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="125" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="125" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="125" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="125" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="125">
+        <f t="shared" si="37"/>
         <v>-0.38106849207440835</v>
       </c>
-      <c r="U28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="150">
-        <f t="shared" si="30"/>
+      <c r="U28" s="125">
+        <f t="shared" si="37"/>
+        <v>1.8098802296818151E-3</v>
+      </c>
+      <c r="V28" s="125" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="125" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="127">
+        <f t="shared" si="37"/>
         <v>1.5786254301644598E-2</v>
       </c>
-      <c r="Y28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="149" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="126">
+        <f t="shared" si="37"/>
+        <v>2.1474513700534492E-2</v>
+      </c>
+      <c r="Z28" s="125" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" ref="C31:D31" si="31">C32+C33+C34-C57-C53</f>
+        <f t="shared" ref="C31:D31" si="38">C32+C33+C34-C57-C53</f>
         <v>-14.930999999999926</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>-120.89899999999994</v>
       </c>
       <c r="E31" s="11">
@@ -15580,83 +15672,83 @@
         <v>-233.03700000000001</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" ref="F31:H31" si="32">F32+F33+F34-F57-F53</f>
+        <f t="shared" ref="F31:H31" si="39">F32+F33+F34-F57-F53</f>
         <v>-162.47899999999998</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" ref="K31:Z31" si="33">K32+K33+K34-K57-K53</f>
+        <f t="shared" ref="K31:Z31" si="40">K32+K33+K34-K57-K53</f>
         <v>0</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-162.47899999999998</v>
       </c>
       <c r="W31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-148.24199999999996</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X31" s="148">
         <f>X32+X33+X34-X57-X53</f>
         <v>-116.88900000000001</v>
       </c>
-      <c r="Y31" s="11">
-        <f t="shared" si="33"/>
+      <c r="Y31" s="14">
+        <f t="shared" si="40"/>
+        <v>-82.245000000000061</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -15690,10 +15782,12 @@
       <c r="W32" s="10">
         <v>274.52199999999999</v>
       </c>
-      <c r="X32" s="15">
+      <c r="X32" s="150">
         <v>303.82299999999998</v>
       </c>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="15">
+        <v>320.29399999999998</v>
+      </c>
       <c r="Z32" s="10"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
@@ -15724,16 +15818,18 @@
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10">
-        <f t="shared" ref="V33:V39" si="34">F33</f>
+        <f t="shared" ref="V33:V39" si="41">F33</f>
         <v>3.9769999999999999</v>
       </c>
       <c r="W33" s="10">
         <v>4.2569999999999997</v>
       </c>
-      <c r="X33" s="15">
+      <c r="X33" s="150">
         <v>2.5169999999999999</v>
       </c>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="15">
+        <v>1.8540000000000001</v>
+      </c>
       <c r="Z33" s="10"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
@@ -15764,16 +15860,18 @@
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>94.352999999999994</v>
       </c>
       <c r="W34" s="10">
         <v>63.939</v>
       </c>
-      <c r="X34" s="15">
+      <c r="X34" s="150">
         <v>68.227000000000004</v>
       </c>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="15">
+        <v>87.558000000000007</v>
+      </c>
       <c r="Z34" s="10"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
@@ -15804,16 +15902,18 @@
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>42.899000000000001</v>
       </c>
       <c r="W35" s="10">
         <v>54.292000000000002</v>
       </c>
-      <c r="X35" s="15">
+      <c r="X35" s="150">
         <v>59.435000000000002</v>
       </c>
-      <c r="Y35" s="10"/>
+      <c r="Y35" s="15">
+        <v>57.923999999999999</v>
+      </c>
       <c r="Z35" s="10"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
@@ -15844,16 +15944,18 @@
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>9.1929999999999996</v>
       </c>
       <c r="W36" s="10">
         <v>8.5790000000000006</v>
       </c>
-      <c r="X36" s="15">
+      <c r="X36" s="150">
         <v>8.7759999999999998</v>
       </c>
-      <c r="Y36" s="10"/>
+      <c r="Y36" s="15">
+        <v>7.2279999999999998</v>
+      </c>
       <c r="Z36" s="10"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
@@ -15884,16 +15986,18 @@
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>11.625</v>
       </c>
       <c r="W37" s="10">
         <v>15.542</v>
       </c>
-      <c r="X37" s="15">
+      <c r="X37" s="150">
         <v>12.535</v>
       </c>
-      <c r="Y37" s="10"/>
+      <c r="Y37" s="15">
+        <v>17.559000000000001</v>
+      </c>
       <c r="Z37" s="10"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
@@ -15924,16 +16028,18 @@
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>27.521000000000001</v>
       </c>
       <c r="W38" s="10">
         <v>28.355</v>
       </c>
-      <c r="X38" s="15">
+      <c r="X38" s="150">
         <v>26.657</v>
       </c>
-      <c r="Y38" s="10"/>
+      <c r="Y38" s="15">
+        <v>24.256</v>
+      </c>
       <c r="Z38" s="10"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
@@ -15964,16 +16070,18 @@
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.7409999999999997</v>
       </c>
       <c r="W39" s="10">
         <v>9.0120000000000005</v>
       </c>
-      <c r="X39" s="15">
+      <c r="X39" s="150">
         <v>9.4130000000000003</v>
       </c>
-      <c r="Y39" s="10"/>
+      <c r="Y39" s="15">
+        <v>9.6660000000000004</v>
+      </c>
       <c r="Z39" s="10"/>
     </row>
     <row r="40" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15981,7 +16089,7 @@
         <v>61</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" ref="C40" si="35">SUM(C32:C39)</f>
+        <f t="shared" ref="C40" si="42">SUM(C32:C39)</f>
         <v>616.21600000000001</v>
       </c>
       <c r="D40" s="11">
@@ -15989,75 +16097,75 @@
         <v>522.45000000000005</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" ref="E40:F40" si="36">SUM(E32:E39)</f>
+        <f t="shared" ref="E40:F40" si="43">SUM(E32:E39)</f>
         <v>531.07599999999991</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>427.964</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" ref="K40:T40" si="37">SUM(K32:K39)</f>
+        <f t="shared" ref="K40:T40" si="44">SUM(K32:K39)</f>
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" ref="U40:Z40" si="38">SUM(U32:U39)</f>
+        <f t="shared" ref="U40:Z40" si="45">SUM(U32:U39)</f>
         <v>0</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>427.964</v>
       </c>
       <c r="W40" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>458.49799999999999</v>
       </c>
-      <c r="X40" s="14">
-        <f t="shared" si="38"/>
+      <c r="X40" s="148">
+        <f t="shared" si="45"/>
         <v>491.38300000000004</v>
       </c>
-      <c r="Y40" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
+      <c r="Y40" s="14">
+        <f t="shared" si="45"/>
+        <v>526.33900000000006</v>
       </c>
       <c r="Z40" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -16089,16 +16197,18 @@
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10">
-        <f t="shared" ref="V41:V48" si="39">F41</f>
+        <f t="shared" ref="V41:V48" si="46">F41</f>
         <v>41.177999999999997</v>
       </c>
       <c r="W41" s="10">
         <v>37.871000000000002</v>
       </c>
-      <c r="X41" s="15">
+      <c r="X41" s="150">
         <v>35.491</v>
       </c>
-      <c r="Y41" s="10"/>
+      <c r="Y41" s="15">
+        <v>34.247999999999998</v>
+      </c>
       <c r="Z41" s="10"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
@@ -16129,16 +16239,18 @@
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>35.453000000000003</v>
       </c>
       <c r="W42" s="10">
         <v>34.957000000000001</v>
       </c>
-      <c r="X42" s="15">
+      <c r="X42" s="150">
         <v>33.411000000000001</v>
       </c>
-      <c r="Y42" s="10"/>
+      <c r="Y42" s="15">
+        <v>31.055</v>
+      </c>
       <c r="Z42" s="10"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
@@ -16169,16 +16281,18 @@
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>26.09</v>
       </c>
       <c r="W43" s="10">
         <v>31.861000000000001</v>
       </c>
-      <c r="X43" s="15">
+      <c r="X43" s="150">
         <v>30.094000000000001</v>
       </c>
-      <c r="Y43" s="10"/>
+      <c r="Y43" s="15">
+        <v>28.797999999999998</v>
+      </c>
       <c r="Z43" s="10"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
@@ -16209,16 +16323,18 @@
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>21.48</v>
       </c>
       <c r="W44" s="10">
         <v>22.172000000000001</v>
       </c>
-      <c r="X44" s="15">
+      <c r="X44" s="150">
         <v>23.151</v>
       </c>
-      <c r="Y44" s="10"/>
+      <c r="Y44" s="15">
+        <v>24.795000000000002</v>
+      </c>
       <c r="Z44" s="10"/>
     </row>
     <row r="45" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16249,16 +16365,18 @@
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>121.572</v>
       </c>
       <c r="W45" s="10">
         <v>115.249</v>
       </c>
-      <c r="X45" s="15">
+      <c r="X45" s="150">
         <v>108.402</v>
       </c>
-      <c r="Y45" s="10"/>
+      <c r="Y45" s="15">
+        <v>101.14700000000001</v>
+      </c>
       <c r="Z45" s="10"/>
     </row>
     <row r="46" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16288,17 +16406,19 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="10">
-        <f t="shared" si="39"/>
+      <c r="V46" s="156">
+        <f t="shared" si="46"/>
         <v>512.86900000000003</v>
       </c>
-      <c r="W46" s="10">
+      <c r="W46" s="156">
         <v>512.86900000000003</v>
       </c>
-      <c r="X46" s="15">
+      <c r="X46" s="157">
         <v>512.86900000000003</v>
       </c>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="158">
+        <v>512.86900000000003</v>
+      </c>
       <c r="Z46" s="10"/>
     </row>
     <row r="47" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16329,16 +16449,18 @@
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>12.21</v>
       </c>
       <c r="W47" s="10">
         <v>11.702</v>
       </c>
-      <c r="X47" s="15">
+      <c r="X47" s="150">
         <v>11.238</v>
       </c>
-      <c r="Y47" s="10"/>
+      <c r="Y47" s="15">
+        <v>10.071999999999999</v>
+      </c>
       <c r="Z47" s="10"/>
     </row>
     <row r="48" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16369,16 +16491,18 @@
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>2.609</v>
       </c>
       <c r="W48" s="10">
         <v>3.2080000000000002</v>
       </c>
-      <c r="X48" s="15">
+      <c r="X48" s="150">
         <v>2.9849999999999999</v>
       </c>
-      <c r="Y48" s="10"/>
+      <c r="Y48" s="15">
+        <v>3.492</v>
+      </c>
       <c r="Z48" s="10"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
@@ -16402,67 +16526,67 @@
         <v>1201.4250000000002</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" ref="K49:T49" si="40">SUM(K40:K48)</f>
+        <f t="shared" ref="K49:T49" si="47">SUM(K40:K48)</f>
         <v>0</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="U49" s="11">
-        <f t="shared" ref="U49:Z49" si="41">SUM(U40:U48)</f>
+        <f t="shared" ref="U49:Z49" si="48">SUM(U40:U48)</f>
         <v>0</v>
       </c>
       <c r="V49" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1201.4250000000002</v>
       </c>
       <c r="W49" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1228.3870000000002</v>
       </c>
-      <c r="X49" s="14">
-        <f t="shared" si="41"/>
+      <c r="X49" s="148">
+        <f t="shared" si="48"/>
         <v>1249.0240000000001</v>
       </c>
-      <c r="Y49" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
+      <c r="Y49" s="14">
+        <f t="shared" si="48"/>
+        <v>1272.8150000000001</v>
       </c>
       <c r="Z49" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -16494,16 +16618,18 @@
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10">
-        <f t="shared" ref="V50:V55" si="42">F50</f>
+        <f t="shared" ref="V50:V55" si="49">F50</f>
         <v>19.353000000000002</v>
       </c>
       <c r="W50" s="10">
         <v>12.599</v>
       </c>
-      <c r="X50" s="15">
+      <c r="X50" s="150">
         <v>14.249000000000001</v>
       </c>
-      <c r="Y50" s="10"/>
+      <c r="Y50" s="15">
+        <v>13.23</v>
+      </c>
       <c r="Z50" s="10"/>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
@@ -16534,16 +16660,18 @@
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>16.471</v>
       </c>
       <c r="W51" s="10">
         <v>23.225999999999999</v>
       </c>
-      <c r="X51" s="15">
+      <c r="X51" s="150">
         <v>20.338999999999999</v>
       </c>
-      <c r="Y51" s="10"/>
+      <c r="Y51" s="15">
+        <v>19.614999999999998</v>
+      </c>
       <c r="Z51" s="10"/>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.25">
@@ -16574,16 +16702,18 @@
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>26.58</v>
       </c>
       <c r="W52" s="10">
         <v>13.81</v>
       </c>
-      <c r="X52" s="15">
+      <c r="X52" s="150">
         <v>21.36</v>
       </c>
-      <c r="Y52" s="10"/>
+      <c r="Y52" s="15">
+        <v>25.908000000000001</v>
+      </c>
       <c r="Z52" s="10"/>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.25">
@@ -16608,12 +16738,12 @@
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W53" s="10"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="10"/>
+      <c r="X53" s="150"/>
+      <c r="Y53" s="15"/>
       <c r="Z53" s="10"/>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.25">
@@ -16644,16 +16774,18 @@
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>118.723</v>
       </c>
       <c r="W54" s="10">
         <v>132.387</v>
       </c>
-      <c r="X54" s="15">
+      <c r="X54" s="150">
         <v>134.36099999999999</v>
       </c>
-      <c r="Y54" s="10"/>
+      <c r="Y54" s="15">
+        <v>141.267</v>
+      </c>
       <c r="Z54" s="10"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
@@ -16684,16 +16816,18 @@
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>10.436</v>
       </c>
       <c r="W55" s="10">
         <v>10.63</v>
       </c>
-      <c r="X55" s="15">
+      <c r="X55" s="150">
         <v>10.895</v>
       </c>
-      <c r="Y55" s="10"/>
+      <c r="Y55" s="15">
+        <v>10.784000000000001</v>
+      </c>
       <c r="Z55" s="10"/>
     </row>
     <row r="56" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16717,109 +16851,111 @@
         <v>191.56300000000002</v>
       </c>
       <c r="K56" s="11">
-        <f>SUM(K50:K55)</f>
+        <f t="shared" ref="K56:Z56" si="50">SUM(K50:K55)</f>
         <v>0</v>
       </c>
       <c r="L56" s="11">
-        <f>SUM(L50:L55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M56" s="11">
-        <f>SUM(M50:M55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N56" s="11">
-        <f>SUM(N50:N55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O56" s="11">
-        <f>SUM(O50:O55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P56" s="11">
-        <f>SUM(P50:P55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q56" s="11">
-        <f>SUM(Q50:Q55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R56" s="11">
-        <f>SUM(R50:R55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S56" s="11">
-        <f>SUM(S50:S55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T56" s="11">
-        <f>SUM(T50:T55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="U56" s="11">
-        <f>SUM(U50:U55)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V56" s="11">
-        <f>SUM(V50:V55)</f>
+        <f t="shared" si="50"/>
         <v>191.56300000000002</v>
       </c>
       <c r="W56" s="11">
-        <f>SUM(W50:W55)</f>
+        <f t="shared" si="50"/>
         <v>192.65199999999999</v>
       </c>
-      <c r="X56" s="14">
-        <f>SUM(X50:X55)</f>
+      <c r="X56" s="148">
+        <f t="shared" si="50"/>
         <v>201.20400000000001</v>
       </c>
-      <c r="Y56" s="11">
-        <f>SUM(Y50:Y55)</f>
+      <c r="Y56" s="14">
+        <f t="shared" si="50"/>
+        <v>210.80399999999997</v>
+      </c>
+      <c r="Z56" s="11">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="11">
-        <f>SUM(Z50:Z55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:26" s="144" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="144" t="s">
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="145">
+      <c r="C57" s="10">
         <v>557.46799999999996</v>
       </c>
-      <c r="D57" s="145">
+      <c r="D57" s="10">
         <v>551.59799999999996</v>
       </c>
-      <c r="E57" s="145">
+      <c r="E57" s="10">
         <v>657.78899999999999</v>
       </c>
-      <c r="F57" s="146">
+      <c r="F57" s="15">
         <v>490.464</v>
       </c>
-      <c r="K57" s="145"/>
-      <c r="L57" s="145"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
-      <c r="O57" s="145"/>
-      <c r="P57" s="145"/>
-      <c r="Q57" s="145"/>
-      <c r="R57" s="145"/>
-      <c r="S57" s="145"/>
-      <c r="T57" s="145"/>
-      <c r="U57" s="145"/>
-      <c r="V57" s="145">
-        <f t="shared" ref="V57:V60" si="43">F57</f>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10">
+        <f t="shared" ref="V57:V60" si="51">F57</f>
         <v>490.464</v>
       </c>
-      <c r="W57" s="145">
+      <c r="W57" s="10">
         <v>490.96</v>
       </c>
-      <c r="X57" s="146">
+      <c r="X57" s="150">
         <v>491.45600000000002</v>
       </c>
-      <c r="Y57" s="145"/>
-      <c r="Z57" s="145"/>
+      <c r="Y57" s="15">
+        <v>491.95100000000002</v>
+      </c>
+      <c r="Z57" s="10"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -16849,16 +16985,18 @@
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>17.350000000000001</v>
       </c>
       <c r="W58" s="10">
         <v>26.850999999999999</v>
       </c>
-      <c r="X58" s="15">
+      <c r="X58" s="150">
         <v>24.334</v>
       </c>
-      <c r="Y58" s="10"/>
+      <c r="Y58" s="15">
+        <v>25.324000000000002</v>
+      </c>
       <c r="Z58" s="10"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.25">
@@ -16889,16 +17027,18 @@
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>45.588000000000001</v>
       </c>
       <c r="W59" s="10">
         <v>44.429000000000002</v>
       </c>
-      <c r="X59" s="15">
+      <c r="X59" s="150">
         <v>41.771000000000001</v>
       </c>
-      <c r="Y59" s="10"/>
+      <c r="Y59" s="15">
+        <v>39.356999999999999</v>
+      </c>
       <c r="Z59" s="10"/>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.25">
@@ -16929,16 +17069,18 @@
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>7.9809999999999999</v>
       </c>
       <c r="W60" s="10">
         <v>8.5239999999999991</v>
       </c>
-      <c r="X60" s="15">
+      <c r="X60" s="150">
         <v>9.5939999999999994</v>
       </c>
-      <c r="Y60" s="10"/>
+      <c r="Y60" s="15">
+        <v>10.262</v>
+      </c>
       <c r="Z60" s="10"/>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.25">
@@ -16962,67 +17104,67 @@
         <v>752.94600000000003</v>
       </c>
       <c r="K61" s="11">
-        <f>SUM(K56:K60)</f>
+        <f t="shared" ref="K61:Z61" si="52">SUM(K56:K60)</f>
         <v>0</v>
       </c>
       <c r="L61" s="11">
-        <f>SUM(L56:L60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M61" s="11">
-        <f>SUM(M56:M60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N61" s="11">
-        <f>SUM(N56:N60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O61" s="11">
-        <f>SUM(O56:O60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P61" s="11">
-        <f>SUM(P56:P60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q61" s="11">
-        <f>SUM(Q56:Q60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R61" s="11">
-        <f>SUM(R56:R60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="S61" s="11">
-        <f>SUM(S56:S60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T61" s="11">
-        <f>SUM(T56:T60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U61" s="11">
-        <f>SUM(U56:U60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V61" s="11">
-        <f>SUM(V56:V60)</f>
+        <f t="shared" si="52"/>
         <v>752.94600000000003</v>
       </c>
       <c r="W61" s="11">
-        <f>SUM(W56:W60)</f>
+        <f t="shared" si="52"/>
         <v>763.41599999999994</v>
       </c>
-      <c r="X61" s="14">
-        <f>SUM(X56:X60)</f>
+      <c r="X61" s="148">
+        <f t="shared" si="52"/>
         <v>768.35900000000004</v>
       </c>
-      <c r="Y61" s="11">
-        <f>SUM(Y56:Y60)</f>
-        <v>0</v>
+      <c r="Y61" s="14">
+        <f t="shared" si="52"/>
+        <v>777.69799999999987</v>
       </c>
       <c r="Z61" s="11">
-        <f>SUM(Z56:Z60)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -17047,67 +17189,67 @@
         <v>448.47900000000016</v>
       </c>
       <c r="K62" s="10">
-        <f>K49-K61</f>
+        <f t="shared" ref="K62:Z62" si="53">K49-K61</f>
         <v>0</v>
       </c>
       <c r="L62" s="10">
-        <f>L49-L61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M62" s="10">
-        <f>M49-M61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N62" s="10">
-        <f>N49-N61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O62" s="10">
-        <f>O49-O61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P62" s="10">
-        <f>P49-P61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q62" s="10">
-        <f>Q49-Q61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R62" s="10">
-        <f>R49-R61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S62" s="10">
-        <f>S49-S61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T62" s="10">
-        <f>T49-T61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U62" s="10">
-        <f>U49-U61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V62" s="10">
-        <f>V49-V61</f>
+        <f t="shared" si="53"/>
         <v>448.47900000000016</v>
       </c>
       <c r="W62" s="10">
-        <f>W49-W61</f>
+        <f t="shared" si="53"/>
         <v>464.97100000000023</v>
       </c>
-      <c r="X62" s="15">
-        <f>X49-X61</f>
+      <c r="X62" s="150">
+        <f t="shared" si="53"/>
         <v>480.66500000000008</v>
       </c>
-      <c r="Y62" s="10">
-        <f>Y49-Y61</f>
-        <v>0</v>
+      <c r="Y62" s="15">
+        <f t="shared" si="53"/>
+        <v>495.11700000000019</v>
       </c>
       <c r="Z62" s="10">
-        <f>Z49-Z61</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -17119,15 +17261,18 @@
       <c r="D64" s="51"/>
       <c r="E64" s="51"/>
       <c r="F64" s="52"/>
-      <c r="X64" s="16"/>
-    </row>
-    <row r="82" spans="6:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X64" s="154"/>
+      <c r="Y64" s="16"/>
+    </row>
+    <row r="82" spans="6:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F82" s="41"/>
-      <c r="X82" s="41"/>
-    </row>
-    <row r="83" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X82" s="155"/>
+      <c r="Y82" s="41"/>
+    </row>
+    <row r="83" spans="6:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F83" s="16"/>
-      <c r="X83" s="16"/>
+      <c r="X83" s="154"/>
+      <c r="Y83" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25545,14 +25690,14 @@
       <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -25959,10 +26104,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="138"/>
+      <c r="I17" s="141"/>
       <c r="M17" s="83"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -25970,8 +26115,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
       <c r="M18" s="83"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -26394,14 +26539,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="141" t="s">
+      <c r="H43" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="143"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="146"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
